--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219604.8926583209</v>
+        <v>-220395.0910468489</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2449913.843919625</v>
+        <v>2449913.843919626</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,70 +738,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="X4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,64 +972,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,43 +1069,43 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I7" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10.00967878293136</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7293992974318</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17.87560458171882</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>7.865925798787468</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E9" t="n">
-        <v>40.12721019528833</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>60.36402868517428</v>
       </c>
     </row>
     <row r="10">
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I10" t="n">
+      <c r="X10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="J10" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>21.94182076836087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.5588571917057</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.5701741493874</v>
+        <v>295.5701741493875</v>
       </c>
       <c r="D11" t="n">
         <v>286.5514781939154</v>
       </c>
       <c r="E11" t="n">
-        <v>308.2936157638209</v>
+        <v>308.293615763821</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4654318517981</v>
       </c>
       <c r="G11" t="n">
-        <v>328.9154021696689</v>
+        <v>328.915402169669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.91244993649185</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.799295090782</v>
+        <v>91.79929509078204</v>
       </c>
       <c r="T11" t="n">
-        <v>137.4554747206781</v>
+        <v>137.4554747206782</v>
       </c>
       <c r="U11" t="n">
-        <v>169.7535721856485</v>
+        <v>169.7535721856486</v>
       </c>
       <c r="V11" t="n">
         <v>251.0652344318848</v>
       </c>
       <c r="W11" t="n">
-        <v>276.3653339098417</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>57.33446234752182</v>
+        <v>76.64348159497588</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>307.0621899387871</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.26184505086587</v>
+        <v>99.1755680664028</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.99692730938163</v>
+        <v>68.99692730938168</v>
       </c>
       <c r="E13" t="n">
-        <v>67.94467716516108</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.41160149334739</v>
+        <v>68.41160149334743</v>
       </c>
       <c r="G13" t="n">
-        <v>84.46951355862173</v>
+        <v>84.46951355862177</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>73.3072058224777</v>
       </c>
       <c r="I13" t="n">
-        <v>53.69728074684109</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.73462041390943</v>
+        <v>55.73462041390945</v>
       </c>
       <c r="S13" t="n">
-        <v>125.2503481510988</v>
+        <v>125.2503481510989</v>
       </c>
       <c r="T13" t="n">
-        <v>147.376629372667</v>
+        <v>53.58052668796147</v>
       </c>
       <c r="U13" t="n">
-        <v>201.7622652397811</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.5837044660284</v>
       </c>
       <c r="W13" t="n">
-        <v>200.7505905366416</v>
+        <v>200.7505905366417</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>146.3956925324448</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.2705602885124</v>
+        <v>137.2705602885125</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.5588571917057</v>
+        <v>307.5588571917056</v>
       </c>
       <c r="C14" t="n">
-        <v>286.4938141657818</v>
+        <v>295.5701741493874</v>
       </c>
       <c r="D14" t="n">
-        <v>286.5514781939154</v>
+        <v>63.56147979730658</v>
       </c>
       <c r="E14" t="n">
-        <v>308.2936157638209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.465431851798</v>
       </c>
       <c r="G14" t="n">
         <v>328.9154021696689</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.9992433909467</v>
       </c>
       <c r="I14" t="n">
-        <v>69.91244993649185</v>
+        <v>69.9124499364918</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.79929509078194</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.7535721856485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>251.0652344318848</v>
+        <v>251.0652344318847</v>
       </c>
       <c r="W14" t="n">
-        <v>276.3653339098417</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>295.6655921425883</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>307.062189938787</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I15" t="n">
-        <v>58.79535734013342</v>
+        <v>58.79535734013341</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.17556806640276</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>85.37556291180319</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.21682866269193</v>
       </c>
       <c r="E16" t="n">
-        <v>67.94467716516108</v>
+        <v>67.94467716516102</v>
       </c>
       <c r="F16" t="n">
-        <v>68.41160149334739</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.46951355862173</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30720582247766</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.73462041390941</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>125.2503481510988</v>
@@ -1819,19 +1819,19 @@
         <v>147.376629372667</v>
       </c>
       <c r="U16" t="n">
-        <v>201.7622652397811</v>
+        <v>201.762265239781</v>
       </c>
       <c r="V16" t="n">
         <v>175.5837044660283</v>
       </c>
       <c r="W16" t="n">
-        <v>43.51503304488939</v>
+        <v>200.7505905366415</v>
       </c>
       <c r="X16" t="n">
         <v>146.3956925324447</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>137.2705602885123</v>
       </c>
     </row>
     <row r="17">
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.16032758791727</v>
+        <v>17.1603275879173</v>
       </c>
       <c r="T17" t="n">
-        <v>62.81650721781338</v>
+        <v>62.81650721781342</v>
       </c>
       <c r="U17" t="n">
-        <v>95.11460468278378</v>
+        <v>95.11460468278381</v>
       </c>
       <c r="V17" t="n">
-        <v>176.4262669290192</v>
+        <v>176.4262669290201</v>
       </c>
       <c r="W17" t="n">
         <v>201.726366406977</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.53660056353803</v>
+        <v>72.08188935245147</v>
       </c>
       <c r="C19" t="n">
-        <v>10.73659540893851</v>
+        <v>10.73659540893854</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.830546055756999</v>
+        <v>9.830546055757027</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.15666943714787</v>
+        <v>50.61138064823413</v>
       </c>
       <c r="T19" t="n">
-        <v>72.73766186980228</v>
+        <v>72.73766186980231</v>
       </c>
       <c r="U19" t="n">
         <v>127.1232977369164</v>
@@ -2065,10 +2065,10 @@
         <v>126.1116230337769</v>
       </c>
       <c r="X19" t="n">
-        <v>71.75672502958</v>
+        <v>71.75672502958002</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.63159278564768</v>
+        <v>62.63159278564771</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.16032758791727</v>
+        <v>17.16032758791638</v>
       </c>
       <c r="T20" t="n">
-        <v>62.81650721781338</v>
+        <v>62.81650721781341</v>
       </c>
       <c r="U20" t="n">
-        <v>95.11460468278378</v>
+        <v>95.11460468278381</v>
       </c>
       <c r="V20" t="n">
         <v>176.4262669290201</v>
@@ -2178,7 +2178,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I21" t="n">
-        <v>58.79535734013342</v>
+        <v>58.79535734013341</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.53660056353803</v>
+        <v>24.53660056353806</v>
       </c>
       <c r="C22" t="n">
-        <v>10.73659540893851</v>
+        <v>10.73659540893854</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>47.54528878891379</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.830546055756999</v>
+        <v>9.830546055757027</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.6113806482341</v>
+        <v>50.61138064823413</v>
       </c>
       <c r="T22" t="n">
-        <v>72.73766186980228</v>
+        <v>72.73766186980231</v>
       </c>
       <c r="U22" t="n">
         <v>127.1232977369164</v>
@@ -2302,10 +2302,10 @@
         <v>126.1116230337769</v>
       </c>
       <c r="X22" t="n">
-        <v>71.75672502958</v>
+        <v>71.75672502958002</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.63159278564768</v>
+        <v>110.1768815745612</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>232.9198896888409</v>
+        <v>232.919889688841</v>
       </c>
       <c r="C23" t="n">
         <v>220.9312066465227</v>
       </c>
       <c r="D23" t="n">
-        <v>211.9125106910506</v>
+        <v>211.9125106910507</v>
       </c>
       <c r="E23" t="n">
         <v>233.6546482609562</v>
       </c>
       <c r="F23" t="n">
-        <v>252.8264643489333</v>
+        <v>252.8264643489334</v>
       </c>
       <c r="G23" t="n">
         <v>254.2764346668042</v>
       </c>
       <c r="H23" t="n">
-        <v>167.3602758880819</v>
+        <v>167.360275888082</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.16032758791721</v>
+        <v>17.16032758791727</v>
       </c>
       <c r="T23" t="n">
-        <v>62.81650721781335</v>
+        <v>62.81650721781341</v>
       </c>
       <c r="U23" t="n">
-        <v>95.11460468278375</v>
+        <v>95.11460468278381</v>
       </c>
       <c r="V23" t="n">
-        <v>176.42626692902</v>
+        <v>176.4262669290201</v>
       </c>
       <c r="W23" t="n">
         <v>201.726366406977</v>
@@ -2384,7 +2384,7 @@
         <v>221.0266246397236</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.4232224359223</v>
+        <v>232.4232224359224</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I24" t="n">
-        <v>58.79535734013339</v>
+        <v>58.7953573401334</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>43.13134901446314</v>
+        <v>43.13134901446315</v>
       </c>
       <c r="S24" t="n">
         <v>146.468351968438</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.08188935245268</v>
+        <v>24.53660056353806</v>
       </c>
       <c r="C25" t="n">
-        <v>10.73659540893848</v>
+        <v>10.73659540893854</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.830546055756971</v>
+        <v>9.830546055757027</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.61138064823406</v>
+        <v>50.61138064823412</v>
       </c>
       <c r="T25" t="n">
-        <v>72.73766186980225</v>
+        <v>72.73766186980231</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1232977369164</v>
+        <v>174.6685865258303</v>
       </c>
       <c r="V25" t="n">
         <v>100.9447369631636</v>
@@ -2539,10 +2539,10 @@
         <v>126.1116230337769</v>
       </c>
       <c r="X25" t="n">
-        <v>71.75672502957997</v>
+        <v>71.75672502958002</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.63159278564765</v>
+        <v>62.63159278564771</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.4783612038073</v>
+        <v>286.4783612038072</v>
       </c>
       <c r="C26" t="n">
-        <v>274.489678161489</v>
+        <v>274.4896781614889</v>
       </c>
       <c r="D26" t="n">
-        <v>265.470982206017</v>
+        <v>265.4709822060169</v>
       </c>
       <c r="E26" t="n">
         <v>287.2131197759225</v>
@@ -2570,10 +2570,10 @@
         <v>307.8349061817705</v>
       </c>
       <c r="H26" t="n">
-        <v>220.9187474030483</v>
+        <v>220.9187474030482</v>
       </c>
       <c r="I26" t="n">
-        <v>48.83195394859334</v>
+        <v>48.83195394859332</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.71879910288351</v>
+        <v>70.71879910288347</v>
       </c>
       <c r="T26" t="n">
-        <v>116.3749787327797</v>
+        <v>116.3749787327796</v>
       </c>
       <c r="U26" t="n">
         <v>148.67307619775</v>
@@ -2615,7 +2615,7 @@
         <v>229.9847384439863</v>
       </c>
       <c r="W26" t="n">
-        <v>255.2848379219433</v>
+        <v>255.2848379219432</v>
       </c>
       <c r="X26" t="n">
         <v>274.5850961546898</v>
@@ -2652,7 +2652,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I27" t="n">
-        <v>58.79535734013339</v>
+        <v>58.7953573401334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.13134901446314</v>
+        <v>43.13134901446315</v>
       </c>
       <c r="S27" t="n">
         <v>146.468351968438</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.0950720785043</v>
+        <v>78.09507207850426</v>
       </c>
       <c r="C28" t="n">
-        <v>64.29506692390478</v>
+        <v>64.29506692390474</v>
       </c>
       <c r="D28" t="n">
-        <v>47.91643132148317</v>
+        <v>47.91643132148313</v>
       </c>
       <c r="E28" t="n">
-        <v>46.86418117726262</v>
+        <v>46.86418117726258</v>
       </c>
       <c r="F28" t="n">
-        <v>47.33110550544893</v>
+        <v>47.33110550544889</v>
       </c>
       <c r="G28" t="n">
-        <v>63.38901757072327</v>
+        <v>63.38901757072323</v>
       </c>
       <c r="H28" t="n">
-        <v>52.22670983457918</v>
+        <v>52.22670983457913</v>
       </c>
       <c r="I28" t="n">
-        <v>32.61678475894262</v>
+        <v>32.61678475894259</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65412442601094</v>
+        <v>34.65412442601091</v>
       </c>
       <c r="S28" t="n">
-        <v>104.1698521632004</v>
+        <v>104.1698521632003</v>
       </c>
       <c r="T28" t="n">
-        <v>126.2961333847686</v>
+        <v>126.2961333847685</v>
       </c>
       <c r="U28" t="n">
-        <v>180.6817692518827</v>
+        <v>180.6817692518826</v>
       </c>
       <c r="V28" t="n">
         <v>154.5032084781299</v>
       </c>
       <c r="W28" t="n">
-        <v>179.6700945487432</v>
+        <v>179.6700945487431</v>
       </c>
       <c r="X28" t="n">
-        <v>125.3151965445463</v>
+        <v>125.3151965445462</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.190064300614</v>
+        <v>116.1900643006139</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>220.9187474030482</v>
       </c>
       <c r="I29" t="n">
-        <v>48.83195394859335</v>
+        <v>48.83195394859332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.71879910288351</v>
+        <v>70.71879910288347</v>
       </c>
       <c r="T29" t="n">
         <v>116.3749787327796</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.09507207850429</v>
+        <v>78.09507207850426</v>
       </c>
       <c r="C31" t="n">
-        <v>64.29506692390477</v>
+        <v>64.29506692390474</v>
       </c>
       <c r="D31" t="n">
-        <v>47.91643132148316</v>
+        <v>47.91643132148313</v>
       </c>
       <c r="E31" t="n">
-        <v>46.86418117726261</v>
+        <v>46.86418117726258</v>
       </c>
       <c r="F31" t="n">
-        <v>47.33110550544892</v>
+        <v>47.33110550544889</v>
       </c>
       <c r="G31" t="n">
-        <v>63.38901757072325</v>
+        <v>63.38901757072323</v>
       </c>
       <c r="H31" t="n">
-        <v>52.22670983457917</v>
+        <v>52.22670983457913</v>
       </c>
       <c r="I31" t="n">
-        <v>32.61678475894261</v>
+        <v>32.61678475894259</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65412442601093</v>
+        <v>34.65412442601091</v>
       </c>
       <c r="S31" t="n">
         <v>104.1698521632003</v>
@@ -3013,7 +3013,7 @@
         <v>179.6700945487431</v>
       </c>
       <c r="X31" t="n">
-        <v>125.3151965445463</v>
+        <v>125.3151965445462</v>
       </c>
       <c r="Y31" t="n">
         <v>116.1900643006139</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.9521551122956</v>
+        <v>253.9521551122957</v>
       </c>
       <c r="C32" t="n">
         <v>241.9634720699774</v>
       </c>
       <c r="D32" t="n">
-        <v>232.9447761145053</v>
+        <v>232.9447761145054</v>
       </c>
       <c r="E32" t="n">
         <v>254.6869136844109</v>
@@ -3041,13 +3041,13 @@
         <v>273.8587297723881</v>
       </c>
       <c r="G32" t="n">
-        <v>275.3087000902589</v>
+        <v>275.308700090259</v>
       </c>
       <c r="H32" t="n">
-        <v>188.3925413115366</v>
+        <v>188.3925413115367</v>
       </c>
       <c r="I32" t="n">
-        <v>16.30574785708177</v>
+        <v>16.30574785708183</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.19259301137191</v>
+        <v>38.19259301137197</v>
       </c>
       <c r="T32" t="n">
-        <v>83.84877264126806</v>
+        <v>83.84877264126811</v>
       </c>
       <c r="U32" t="n">
         <v>116.1468701062385</v>
       </c>
       <c r="V32" t="n">
-        <v>197.4585323524747</v>
+        <v>197.4585323524748</v>
       </c>
       <c r="W32" t="n">
         <v>222.7586318304317</v>
@@ -3095,7 +3095,7 @@
         <v>242.0588900631783</v>
       </c>
       <c r="Y32" t="n">
-        <v>253.455487859377</v>
+        <v>253.4554878593771</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.56886598699271</v>
+        <v>45.56886598699276</v>
       </c>
       <c r="C34" t="n">
-        <v>31.76886083239319</v>
+        <v>31.76886083239324</v>
       </c>
       <c r="D34" t="n">
-        <v>15.39022522997158</v>
+        <v>15.39022522997163</v>
       </c>
       <c r="E34" t="n">
-        <v>14.33797508575103</v>
+        <v>14.33797508575108</v>
       </c>
       <c r="F34" t="n">
-        <v>14.80489941393733</v>
+        <v>14.80489941393739</v>
       </c>
       <c r="G34" t="n">
-        <v>30.86281147921167</v>
+        <v>30.86281147921173</v>
       </c>
       <c r="H34" t="n">
-        <v>19.70050374306759</v>
+        <v>19.70050374306764</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09057866743102672</v>
+        <v>0.09057866743108356</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.12791833449935</v>
+        <v>2.127918334499407</v>
       </c>
       <c r="S34" t="n">
-        <v>71.64364607168876</v>
+        <v>71.64364607168882</v>
       </c>
       <c r="T34" t="n">
-        <v>93.76992729325696</v>
+        <v>93.76992729325701</v>
       </c>
       <c r="U34" t="n">
         <v>148.1555631603711</v>
       </c>
       <c r="V34" t="n">
-        <v>121.9770023866183</v>
+        <v>121.9770023866184</v>
       </c>
       <c r="W34" t="n">
         <v>147.1438884572316</v>
       </c>
       <c r="X34" t="n">
-        <v>92.78899045303467</v>
+        <v>92.78899045303473</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.66385820910236</v>
+        <v>83.66385820910241</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.16032758791727</v>
+        <v>17.16032758791724</v>
       </c>
       <c r="T35" t="n">
-        <v>62.81650721781341</v>
+        <v>62.81650721781338</v>
       </c>
       <c r="U35" t="n">
-        <v>95.11460468278381</v>
+        <v>95.11460468278378</v>
       </c>
       <c r="V35" t="n">
         <v>176.4262669290201</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.53660056353806</v>
+        <v>24.53660056353803</v>
       </c>
       <c r="C37" t="n">
-        <v>10.73659540893854</v>
+        <v>10.73659540893851</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.830546055757027</v>
+        <v>9.830546055756999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>44.12956681557272</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.02710262157542</v>
+        <v>50.6113806482341</v>
       </c>
       <c r="T37" t="n">
-        <v>72.73766186980231</v>
+        <v>72.73766186980228</v>
       </c>
       <c r="U37" t="n">
         <v>127.1232977369164</v>
       </c>
       <c r="V37" t="n">
-        <v>100.9447369631636</v>
+        <v>148.4900257520779</v>
       </c>
       <c r="W37" t="n">
         <v>126.1116230337769</v>
       </c>
       <c r="X37" t="n">
-        <v>71.75672502958002</v>
+        <v>71.75672502958</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.63159278564771</v>
+        <v>62.63159278564768</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>232.919889688841</v>
       </c>
       <c r="C38" t="n">
-        <v>220.9312066465227</v>
+        <v>220.9312066465228</v>
       </c>
       <c r="D38" t="n">
-        <v>211.9125106910507</v>
+        <v>211.9125106910508</v>
       </c>
       <c r="E38" t="n">
-        <v>233.6546482609562</v>
+        <v>233.6546482609563</v>
       </c>
       <c r="F38" t="n">
-        <v>252.8264643489334</v>
+        <v>252.8264643489335</v>
       </c>
       <c r="G38" t="n">
-        <v>254.2764346668042</v>
+        <v>254.2764346668043</v>
       </c>
       <c r="H38" t="n">
         <v>167.360275888082</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.16032758791727</v>
+        <v>17.16032758791732</v>
       </c>
       <c r="T38" t="n">
-        <v>62.81650721781341</v>
+        <v>62.81650721781347</v>
       </c>
       <c r="U38" t="n">
-        <v>95.11460468278381</v>
+        <v>95.11460468278386</v>
       </c>
       <c r="V38" t="n">
-        <v>176.4262669290201</v>
+        <v>176.4262669290202</v>
       </c>
       <c r="W38" t="n">
-        <v>201.726366406977</v>
+        <v>201.7263664069771</v>
       </c>
       <c r="X38" t="n">
-        <v>221.0266246397236</v>
+        <v>221.0266246397237</v>
       </c>
       <c r="Y38" t="n">
         <v>232.4232224359224</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.53660056353806</v>
+        <v>24.53660056353812</v>
       </c>
       <c r="C40" t="n">
-        <v>10.73659540893854</v>
+        <v>10.7365954089386</v>
       </c>
       <c r="D40" t="n">
-        <v>3.41572197334123</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9.830546055757027</v>
+        <v>9.830546055757084</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>44.12956681557272</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>19.99870672291161</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.61138064823412</v>
+        <v>50.61138064823418</v>
       </c>
       <c r="T40" t="n">
-        <v>72.73766186980231</v>
+        <v>100.284243935804</v>
       </c>
       <c r="U40" t="n">
-        <v>127.1232977369164</v>
+        <v>127.1232977369165</v>
       </c>
       <c r="V40" t="n">
-        <v>100.9447369631636</v>
+        <v>100.9447369631637</v>
       </c>
       <c r="W40" t="n">
-        <v>126.1116230337769</v>
+        <v>126.111623033777</v>
       </c>
       <c r="X40" t="n">
-        <v>71.75672502958002</v>
+        <v>71.75672502958008</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.63159278564771</v>
+        <v>62.63159278564777</v>
       </c>
     </row>
     <row r="41">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>44.12956681557272</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>98.15666943714831</v>
+        <v>50.6113806482341</v>
       </c>
       <c r="T43" t="n">
-        <v>72.73766186980228</v>
+        <v>76.15338384314377</v>
       </c>
       <c r="U43" t="n">
         <v>127.1232977369164</v>
@@ -3977,19 +3977,19 @@
         <v>232.919889688841</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9312066465227</v>
+        <v>220.9312066465228</v>
       </c>
       <c r="D44" t="n">
-        <v>211.9125106910507</v>
+        <v>211.9125106910508</v>
       </c>
       <c r="E44" t="n">
-        <v>233.6546482609562</v>
+        <v>233.6546482609563</v>
       </c>
       <c r="F44" t="n">
-        <v>252.8264643489334</v>
+        <v>252.8264643489335</v>
       </c>
       <c r="G44" t="n">
-        <v>254.2764346668042</v>
+        <v>254.2764346668043</v>
       </c>
       <c r="H44" t="n">
         <v>167.360275888082</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.16032758791724</v>
+        <v>17.16032758791732</v>
       </c>
       <c r="T44" t="n">
-        <v>62.81650721781338</v>
+        <v>62.81650721781347</v>
       </c>
       <c r="U44" t="n">
-        <v>95.11460468278378</v>
+        <v>95.11460468278386</v>
       </c>
       <c r="V44" t="n">
-        <v>176.4262669290201</v>
+        <v>176.4262669290202</v>
       </c>
       <c r="W44" t="n">
-        <v>201.726366406977</v>
+        <v>201.7263664069771</v>
       </c>
       <c r="X44" t="n">
-        <v>221.0266246397236</v>
+        <v>221.0266246397237</v>
       </c>
       <c r="Y44" t="n">
         <v>232.4232224359224</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.53660056353803</v>
+        <v>24.53660056353812</v>
       </c>
       <c r="C46" t="n">
-        <v>10.73659540893851</v>
+        <v>10.7365954089386</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.37583484467123</v>
+        <v>9.830546055757084</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>27.54658206600178</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>19.99870672291161</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.6113806482341</v>
+        <v>50.61138064823418</v>
       </c>
       <c r="T46" t="n">
-        <v>72.73766186980228</v>
+        <v>72.73766186980237</v>
       </c>
       <c r="U46" t="n">
-        <v>127.1232977369164</v>
+        <v>127.1232977369165</v>
       </c>
       <c r="V46" t="n">
-        <v>100.9447369631636</v>
+        <v>100.9447369631637</v>
       </c>
       <c r="W46" t="n">
-        <v>126.1116230337769</v>
+        <v>126.111623033777</v>
       </c>
       <c r="X46" t="n">
-        <v>71.75672502958</v>
+        <v>71.75672502958008</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.63159278564768</v>
+        <v>62.63159278564777</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="C2" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="D2" t="n">
         <v>21.02234760148574</v>
@@ -4331,22 +4331,22 @@
         <v>10.3099691464193</v>
       </c>
       <c r="K2" t="n">
-        <v>20.21955114152135</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L2" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="M2" t="n">
+        <v>20.21955114152135</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20.21955114152135</v>
+      </c>
+      <c r="O2" t="n">
         <v>30.12913313662339</v>
       </c>
-      <c r="N2" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40.03871513172544</v>
-      </c>
       <c r="P2" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
@@ -4358,22 +4358,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T2" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U2" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V2" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W2" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X2" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="C3" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D3" t="n">
-        <v>31.13313425091136</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E3" t="n">
-        <v>31.13313425091136</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="F3" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="G3" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I3" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J3" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K3" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L3" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M3" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N3" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="O3" t="n">
         <v>20.21955114152135</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="P3" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q3" t="n">
         <v>40.03871513172544</v>
@@ -4437,22 +4437,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X3" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8007743026345088</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G4" t="n">
         <v>0.8007743026345088</v>
@@ -4489,16 +4489,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K4" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L4" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="M4" t="n">
-        <v>30.12913313662339</v>
-      </c>
       <c r="N4" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O4" t="n">
         <v>30.12913313662339</v>
@@ -4507,31 +4507,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="R4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="U4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="V4" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="W4" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="R4" t="n">
+      <c r="X4" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="S4" t="n">
+      <c r="Y4" t="n">
         <v>29.92792848229982</v>
-      </c>
-      <c r="T4" t="n">
-        <v>29.92792848229982</v>
-      </c>
-      <c r="U4" t="n">
-        <v>29.92792848229982</v>
-      </c>
-      <c r="V4" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="C5" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="D5" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="E5" t="n">
         <v>21.02234760148574</v>
@@ -4565,52 +4565,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N5" t="n">
-        <v>10.71035629773655</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O5" t="n">
-        <v>20.21955114152135</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P5" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q5" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R5" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S5" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T5" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U5" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V5" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W5" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X5" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C6" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D6" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E6" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F6" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G6" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I6" t="n">
         <v>0.8007743026345088</v>
@@ -4647,19 +4647,19 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K6" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L6" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M6" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N6" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O6" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="P6" t="n">
         <v>30.12913313662339</v>
@@ -4668,13 +4668,13 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U6" t="n">
         <v>29.92792848229982</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C7" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D7" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E7" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F7" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="G7" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="H7" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I7" t="n">
         <v>0.8007743026345088</v>
@@ -4726,16 +4726,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M7" t="n">
-        <v>10.3099691464193</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N7" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O7" t="n">
         <v>30.12913313662339</v>
@@ -4744,31 +4744,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R7" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S7" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T7" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U7" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V7" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W7" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X7" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="C8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="D8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="E8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="F8" t="n">
-        <v>178.0785040241021</v>
+        <v>22.92193444920251</v>
       </c>
       <c r="G8" t="n">
-        <v>166.0149215186941</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>28.91451818795497</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4811,13 +4811,13 @@
         <v>10.85835194379454</v>
       </c>
       <c r="M8" t="n">
-        <v>145.230457248252</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N8" t="n">
-        <v>279.6025625527094</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O8" t="n">
-        <v>413.9746678571669</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P8" t="n">
         <v>448.4853435031901</v>
@@ -4829,7 +4829,7 @@
         <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>315.1789073548413</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T8" t="n">
         <v>315.1789073548413</v>
@@ -4841,13 +4841,13 @@
         <v>315.1789073548413</v>
       </c>
       <c r="W8" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="X8" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.1789073548413</v>
+        <v>170.1331244293673</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>483.1333282846729</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C9" t="n">
-        <v>483.1333282846729</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D9" t="n">
-        <v>483.1333282846729</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E9" t="n">
-        <v>442.6007927338766</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F9" t="n">
-        <v>307.9069946837509</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G9" t="n">
-        <v>179.1784947070355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H9" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
@@ -4887,16 +4887,16 @@
         <v>71.11249847690068</v>
       </c>
       <c r="L9" t="n">
-        <v>205.4846037813581</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813581</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="N9" t="n">
+        <v>139.8012812763547</v>
+      </c>
+      <c r="O9" t="n">
         <v>274.1733865808121</v>
-      </c>
-      <c r="O9" t="n">
-        <v>408.5454918852696</v>
       </c>
       <c r="P9" t="n">
         <v>408.5454918852696</v>
@@ -4920,13 +4920,13 @@
         <v>483.1333282846729</v>
       </c>
       <c r="W9" t="n">
-        <v>483.1333282846729</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="X9" t="n">
-        <v>483.1333282846729</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="Y9" t="n">
-        <v>483.1333282846729</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C10" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D10" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E10" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F10" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G10" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4981,31 +4981,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S10" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T10" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U10" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V10" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W10" t="n">
-        <v>504.380255843416</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X10" t="n">
-        <v>504.380255843416</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y10" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1355.462548764013</v>
+        <v>1615.617075951191</v>
       </c>
       <c r="C11" t="n">
-        <v>1056.906817299986</v>
+        <v>1317.061344487164</v>
       </c>
       <c r="D11" t="n">
-        <v>767.460879730374</v>
+        <v>1027.615406917552</v>
       </c>
       <c r="E11" t="n">
-        <v>456.053187039646</v>
+        <v>716.207714226824</v>
       </c>
       <c r="F11" t="n">
-        <v>456.053187039646</v>
+        <v>385.4345507401594</v>
       </c>
       <c r="G11" t="n">
-        <v>123.8154070702834</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="H11" t="n">
-        <v>123.8154070702834</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I11" t="n">
         <v>53.1967707707967</v>
       </c>
       <c r="J11" t="n">
-        <v>165.8044002066538</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K11" t="n">
-        <v>466.8072640914869</v>
+        <v>466.8072640914866</v>
       </c>
       <c r="L11" t="n">
-        <v>890.1979401336866</v>
+        <v>890.1979401336863</v>
       </c>
       <c r="M11" t="n">
         <v>1367.451304241077</v>
@@ -5054,7 +5054,7 @@
         <v>1831.156298338517</v>
       </c>
       <c r="O11" t="n">
-        <v>2216.776785817476</v>
+        <v>2216.776785817475</v>
       </c>
       <c r="P11" t="n">
         <v>2513.737490374423</v>
@@ -5078,13 +5078,13 @@
         <v>2003.198562348932</v>
       </c>
       <c r="W11" t="n">
-        <v>1724.041659409698</v>
+        <v>2003.198562348932</v>
       </c>
       <c r="X11" t="n">
-        <v>1666.128061078868</v>
+        <v>1925.780904172188</v>
       </c>
       <c r="Y11" t="n">
-        <v>1666.128061078868</v>
+        <v>1615.617075951191</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>53.1967707707967</v>
       </c>
       <c r="K12" t="n">
-        <v>324.0258921043554</v>
+        <v>324.0258921043553</v>
       </c>
       <c r="L12" t="n">
         <v>745.432544486511</v>
       </c>
       <c r="M12" t="n">
-        <v>1155.989345644585</v>
+        <v>1295.330746247208</v>
       </c>
       <c r="N12" t="n">
-        <v>1733.836619539988</v>
+        <v>1543.38666980491</v>
       </c>
       <c r="O12" t="n">
-        <v>2186.945751958955</v>
+        <v>1996.495802223876</v>
       </c>
       <c r="P12" t="n">
-        <v>2537.926659344899</v>
+        <v>2347.476709609821</v>
       </c>
       <c r="Q12" t="n">
         <v>2537.926659344899</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>400.1866700368098</v>
+        <v>351.3636881281993</v>
       </c>
       <c r="C13" t="n">
-        <v>400.1866700368098</v>
+        <v>351.3636881281993</v>
       </c>
       <c r="D13" t="n">
-        <v>330.4928040677374</v>
+        <v>281.6698221591269</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8618170322212</v>
+        <v>281.6698221591269</v>
       </c>
       <c r="F13" t="n">
-        <v>192.7591892611632</v>
+        <v>212.5671943880689</v>
       </c>
       <c r="G13" t="n">
-        <v>107.4364482928584</v>
+        <v>127.2444534197641</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4364482928584</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I13" t="n">
         <v>53.1967707707967</v>
       </c>
       <c r="J13" t="n">
-        <v>91.22730408520161</v>
+        <v>91.22730408520155</v>
       </c>
       <c r="K13" t="n">
-        <v>231.4855575532406</v>
+        <v>231.4855575532405</v>
       </c>
       <c r="L13" t="n">
         <v>445.7199909201556</v>
       </c>
       <c r="M13" t="n">
-        <v>679.0753930536571</v>
+        <v>679.075393053657</v>
       </c>
       <c r="N13" t="n">
-        <v>912.059673288246</v>
+        <v>912.0596732882458</v>
       </c>
       <c r="O13" t="n">
         <v>1122.578074331434</v>
@@ -5218,31 +5218,31 @@
         <v>1293.22300851701</v>
       </c>
       <c r="Q13" t="n">
-        <v>1355.14309332315</v>
+        <v>1355.143093323149</v>
       </c>
       <c r="R13" t="n">
         <v>1298.845496945463</v>
       </c>
       <c r="S13" t="n">
-        <v>1172.329993762535</v>
+        <v>1172.329993762534</v>
       </c>
       <c r="T13" t="n">
-        <v>1023.464711567922</v>
+        <v>1118.20824963328</v>
       </c>
       <c r="U13" t="n">
-        <v>819.6644436489511</v>
+        <v>1118.20824963328</v>
       </c>
       <c r="V13" t="n">
-        <v>819.6644436489511</v>
+        <v>940.8509723948678</v>
       </c>
       <c r="W13" t="n">
-        <v>616.8860693695151</v>
+        <v>738.0725981154317</v>
       </c>
       <c r="X13" t="n">
-        <v>616.8860693695151</v>
+        <v>590.1981612139723</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.2289377649572</v>
+        <v>451.5410296094143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1346.294508376533</v>
+        <v>1394.029277129988</v>
       </c>
       <c r="C14" t="n">
-        <v>1056.906817299986</v>
+        <v>1095.473545665961</v>
       </c>
       <c r="D14" t="n">
-        <v>767.4608797303745</v>
+        <v>1031.270030719186</v>
       </c>
       <c r="E14" t="n">
-        <v>456.053187039646</v>
+        <v>1031.270030719186</v>
       </c>
       <c r="F14" t="n">
-        <v>456.053187039646</v>
+        <v>700.4968672325213</v>
       </c>
       <c r="G14" t="n">
-        <v>123.8154070702834</v>
+        <v>368.2590872631587</v>
       </c>
       <c r="H14" t="n">
         <v>123.8154070702834</v>
       </c>
       <c r="I14" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="J14" t="n">
-        <v>165.8044002066536</v>
+        <v>165.8044002066534</v>
       </c>
       <c r="K14" t="n">
-        <v>466.8072640914866</v>
+        <v>466.8072640914864</v>
       </c>
       <c r="L14" t="n">
         <v>890.1979401336863</v>
@@ -5291,37 +5291,37 @@
         <v>1831.156298338517</v>
       </c>
       <c r="O14" t="n">
-        <v>2216.776785817476</v>
+        <v>2216.776785817475</v>
       </c>
       <c r="P14" t="n">
-        <v>2513.737490374423</v>
+        <v>2513.737490374422</v>
       </c>
       <c r="Q14" t="n">
-        <v>2659.838538539835</v>
+        <v>2659.838538539834</v>
       </c>
       <c r="R14" t="n">
-        <v>2659.838538539835</v>
+        <v>2659.838538539834</v>
       </c>
       <c r="S14" t="n">
-        <v>2659.838538539835</v>
+        <v>2567.111977842075</v>
       </c>
       <c r="T14" t="n">
-        <v>2659.838538539835</v>
+        <v>2567.111977842075</v>
       </c>
       <c r="U14" t="n">
-        <v>2488.370283806858</v>
+        <v>2567.111977842075</v>
       </c>
       <c r="V14" t="n">
-        <v>2234.769036905964</v>
+        <v>2313.510730941181</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.61213396673</v>
+        <v>2313.510730941181</v>
       </c>
       <c r="X14" t="n">
-        <v>1656.960020691388</v>
+        <v>2014.85861766584</v>
       </c>
       <c r="Y14" t="n">
-        <v>1656.960020691388</v>
+        <v>1704.694789444842</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.7326644389296</v>
+        <v>1042.644543633865</v>
       </c>
       <c r="C15" t="n">
-        <v>759.0289916798844</v>
+        <v>880.9408708748199</v>
       </c>
       <c r="D15" t="n">
-        <v>620.1903546700964</v>
+        <v>742.102233865032</v>
       </c>
       <c r="E15" t="n">
-        <v>473.1623447269677</v>
+        <v>595.0742239219032</v>
       </c>
       <c r="F15" t="n">
-        <v>338.468546676842</v>
+        <v>460.3804258717776</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0012456921628</v>
+        <v>331.9131248870983</v>
       </c>
       <c r="H15" t="n">
-        <v>112.5860206093153</v>
+        <v>234.4978998042508</v>
       </c>
       <c r="I15" t="n">
-        <v>53.1967707707967</v>
+        <v>175.1086499657322</v>
       </c>
       <c r="J15" t="n">
-        <v>53.1967707707967</v>
+        <v>259.5492894218675</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6844915017325</v>
+        <v>530.3784107554261</v>
       </c>
       <c r="L15" t="n">
-        <v>606.0911438838882</v>
+        <v>951.7850631375818</v>
       </c>
       <c r="M15" t="n">
-        <v>1155.989345644585</v>
+        <v>1501.683264898279</v>
       </c>
       <c r="N15" t="n">
-        <v>1733.836619539988</v>
+        <v>2079.530538793682</v>
       </c>
       <c r="O15" t="n">
-        <v>2186.945751958955</v>
+        <v>2308.85763115389</v>
       </c>
       <c r="P15" t="n">
-        <v>2537.926659344899</v>
+        <v>2659.838538539834</v>
       </c>
       <c r="Q15" t="n">
-        <v>2537.926659344899</v>
+        <v>2659.838538539834</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.359640138371</v>
+        <v>2616.271519333306</v>
       </c>
       <c r="S15" t="n">
-        <v>2346.411809867221</v>
+        <v>2468.323689062156</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.77952126865</v>
+        <v>2280.691400463585</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.301913011173</v>
+        <v>2062.213792206108</v>
       </c>
       <c r="V15" t="n">
-        <v>1711.906290459507</v>
+        <v>1833.818169654442</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.590421692817</v>
+        <v>1592.502300887752</v>
       </c>
       <c r="X15" t="n">
-        <v>1272.673433570612</v>
+        <v>1394.585312765547</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.152107220191</v>
+        <v>1202.063986415126</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>350.300809194643</v>
+        <v>209.2948200027728</v>
       </c>
       <c r="C16" t="n">
-        <v>350.300809194643</v>
+        <v>123.0568776676179</v>
       </c>
       <c r="D16" t="n">
-        <v>350.300809194643</v>
+        <v>121.8277578063129</v>
       </c>
       <c r="E16" t="n">
-        <v>281.6698221591267</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="F16" t="n">
-        <v>212.5671943880688</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="G16" t="n">
-        <v>127.244453419764</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="H16" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="I16" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="J16" t="n">
-        <v>91.22730408520158</v>
+        <v>91.22730408520164</v>
       </c>
       <c r="K16" t="n">
-        <v>231.4855575532406</v>
+        <v>231.4855575532407</v>
       </c>
       <c r="L16" t="n">
-        <v>445.7199909201558</v>
+        <v>445.719990920156</v>
       </c>
       <c r="M16" t="n">
-        <v>679.0753930536573</v>
+        <v>679.0753930536576</v>
       </c>
       <c r="N16" t="n">
-        <v>912.0596732882464</v>
+        <v>912.0596732882466</v>
       </c>
       <c r="O16" t="n">
         <v>1122.578074331435</v>
@@ -5458,28 +5458,28 @@
         <v>1355.14309332315</v>
       </c>
       <c r="R16" t="n">
-        <v>1298.845496945464</v>
+        <v>1355.14309332315</v>
       </c>
       <c r="S16" t="n">
-        <v>1172.329993762536</v>
+        <v>1228.627590140222</v>
       </c>
       <c r="T16" t="n">
-        <v>1023.464711567922</v>
+        <v>1079.762307945609</v>
       </c>
       <c r="U16" t="n">
-        <v>819.6644436489516</v>
+        <v>875.9620400266382</v>
       </c>
       <c r="V16" t="n">
-        <v>642.3071664105391</v>
+        <v>698.6047627882258</v>
       </c>
       <c r="W16" t="n">
-        <v>598.3525875773175</v>
+        <v>495.8263885087899</v>
       </c>
       <c r="X16" t="n">
-        <v>450.4781506758579</v>
+        <v>347.9519516073307</v>
       </c>
       <c r="Y16" t="n">
-        <v>450.4781506758579</v>
+        <v>209.2948200027728</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1407.703377338826</v>
       </c>
       <c r="C17" t="n">
-        <v>1184.540542342338</v>
+        <v>1184.540542342339</v>
       </c>
       <c r="D17" t="n">
-        <v>970.4875012402667</v>
+        <v>970.487501240267</v>
       </c>
       <c r="E17" t="n">
-        <v>734.4727050170785</v>
+        <v>734.4727050170789</v>
       </c>
       <c r="F17" t="n">
-        <v>479.092437997954</v>
+        <v>479.0924379979542</v>
       </c>
       <c r="G17" t="n">
         <v>222.2475544961321</v>
@@ -5513,7 +5513,7 @@
         <v>53.19677077079668</v>
       </c>
       <c r="J17" t="n">
-        <v>165.8044002066535</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K17" t="n">
         <v>466.8072640914866</v>
@@ -5540,19 +5540,19 @@
         <v>2659.838538539834</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.504874309615</v>
+        <v>2642.504874309614</v>
       </c>
       <c r="T17" t="n">
         <v>2579.053856917884</v>
       </c>
       <c r="U17" t="n">
-        <v>2482.978498652445</v>
+        <v>2482.978498652446</v>
       </c>
       <c r="V17" t="n">
-        <v>2304.770148219092</v>
+        <v>2304.770148219093</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.006141747398</v>
+        <v>2101.006141747399</v>
       </c>
       <c r="X17" t="n">
         <v>1877.746924939597</v>
@@ -5598,19 +5598,19 @@
         <v>53.19677077079668</v>
       </c>
       <c r="L18" t="n">
-        <v>474.6034231529524</v>
+        <v>415.6411941488099</v>
       </c>
       <c r="M18" t="n">
-        <v>1024.50162491365</v>
+        <v>965.539395909507</v>
       </c>
       <c r="N18" t="n">
-        <v>1602.348898809053</v>
+        <v>1543.38666980491</v>
       </c>
       <c r="O18" t="n">
-        <v>2055.458031228019</v>
+        <v>1996.495802223876</v>
       </c>
       <c r="P18" t="n">
-        <v>2406.438938613963</v>
+        <v>2347.476709609821</v>
       </c>
       <c r="Q18" t="n">
         <v>2537.926659344899</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.97166113917599</v>
+        <v>73.97166113917605</v>
       </c>
       <c r="C19" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="D19" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="E19" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="F19" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="G19" t="n">
         <v>53.19677077079668</v>
@@ -5680,43 +5680,43 @@
         <v>244.251848682107</v>
       </c>
       <c r="M19" t="n">
-        <v>395.8884463537865</v>
+        <v>395.8884463537864</v>
       </c>
       <c r="N19" t="n">
-        <v>547.1539221265535</v>
+        <v>547.1539221265534</v>
       </c>
       <c r="O19" t="n">
-        <v>675.9535187079198</v>
+        <v>675.9535187079197</v>
       </c>
       <c r="P19" t="n">
-        <v>764.8796484316738</v>
+        <v>764.8796484316737</v>
       </c>
       <c r="Q19" t="n">
-        <v>764.8796484316738</v>
+        <v>764.8796484316737</v>
       </c>
       <c r="R19" t="n">
-        <v>764.8796484316738</v>
+        <v>764.8796484316737</v>
       </c>
       <c r="S19" t="n">
-        <v>665.7314974850598</v>
+        <v>713.7570417162857</v>
       </c>
       <c r="T19" t="n">
-        <v>592.2591117579867</v>
+        <v>640.2846559892126</v>
       </c>
       <c r="U19" t="n">
-        <v>463.8517403065561</v>
+        <v>511.8772845377819</v>
       </c>
       <c r="V19" t="n">
-        <v>361.8873595356837</v>
+        <v>409.9129037669096</v>
       </c>
       <c r="W19" t="n">
-        <v>234.5018817237878</v>
+        <v>282.5274259550137</v>
       </c>
       <c r="X19" t="n">
-        <v>162.0203412898686</v>
+        <v>210.0458855210944</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.75610615285078</v>
+        <v>146.7816503840765</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1184.540542342339</v>
       </c>
       <c r="D20" t="n">
-        <v>970.4875012402674</v>
+        <v>970.4875012402672</v>
       </c>
       <c r="E20" t="n">
-        <v>734.4727050170793</v>
+        <v>734.4727050170791</v>
       </c>
       <c r="F20" t="n">
-        <v>479.0924379979547</v>
+        <v>479.0924379979544</v>
       </c>
       <c r="G20" t="n">
         <v>222.2475544961321</v>
       </c>
       <c r="H20" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="I20" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="J20" t="n">
-        <v>165.8044002066538</v>
+        <v>165.8044002066534</v>
       </c>
       <c r="K20" t="n">
-        <v>466.8072640914869</v>
+        <v>466.8072640914864</v>
       </c>
       <c r="L20" t="n">
-        <v>890.1979401336866</v>
+        <v>890.1979401336862</v>
       </c>
       <c r="M20" t="n">
         <v>1367.451304241077</v>
@@ -5765,22 +5765,22 @@
         <v>1831.156298338517</v>
       </c>
       <c r="O20" t="n">
-        <v>2216.776785817476</v>
+        <v>2216.776785817475</v>
       </c>
       <c r="P20" t="n">
-        <v>2513.737490374423</v>
+        <v>2513.737490374422</v>
       </c>
       <c r="Q20" t="n">
-        <v>2659.838538539835</v>
+        <v>2659.838538539834</v>
       </c>
       <c r="R20" t="n">
-        <v>2659.838538539835</v>
+        <v>2659.838538539834</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.504874309615</v>
+        <v>2642.504874309616</v>
       </c>
       <c r="T20" t="n">
-        <v>2579.053856917885</v>
+        <v>2579.053856917884</v>
       </c>
       <c r="U20" t="n">
         <v>2482.978498652446</v>
@@ -5820,31 +5820,31 @@
         <v>338.468546676842</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0012456921628</v>
+        <v>210.0012456921627</v>
       </c>
       <c r="H21" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I21" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="J21" t="n">
         <v>137.6374102269319</v>
       </c>
       <c r="K21" t="n">
-        <v>345.2154491525987</v>
+        <v>408.4665315604906</v>
       </c>
       <c r="L21" t="n">
-        <v>766.6221015347544</v>
+        <v>829.8731839426463</v>
       </c>
       <c r="M21" t="n">
-        <v>1316.520303295452</v>
+        <v>965.539395909507</v>
       </c>
       <c r="N21" t="n">
-        <v>1894.367577190854</v>
+        <v>1543.38666980491</v>
       </c>
       <c r="O21" t="n">
-        <v>2347.476709609821</v>
+        <v>1996.495802223876</v>
       </c>
       <c r="P21" t="n">
         <v>2347.476709609821</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.9972053704021</v>
+        <v>73.97166113917605</v>
       </c>
       <c r="C22" t="n">
-        <v>111.1521595027874</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="D22" t="n">
-        <v>111.1521595027874</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="E22" t="n">
-        <v>63.12661527156134</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="F22" t="n">
-        <v>63.12661527156134</v>
+        <v>63.12661527156136</v>
       </c>
       <c r="G22" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="H22" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="I22" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="J22" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079668</v>
       </c>
       <c r="K22" t="n">
         <v>111.7362197770138</v>
@@ -5941,19 +5941,19 @@
         <v>640.2846559892128</v>
       </c>
       <c r="U22" t="n">
-        <v>511.8772845377821</v>
+        <v>511.877284537782</v>
       </c>
       <c r="V22" t="n">
         <v>409.9129037669097</v>
       </c>
       <c r="W22" t="n">
-        <v>282.5274259550139</v>
+        <v>282.5274259550138</v>
       </c>
       <c r="X22" t="n">
-        <v>210.0458855210947</v>
+        <v>210.0458855210945</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.7816503840768</v>
+        <v>98.75610615285086</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1184.540542342339</v>
       </c>
       <c r="D23" t="n">
-        <v>970.4875012402679</v>
+        <v>970.4875012402676</v>
       </c>
       <c r="E23" t="n">
-        <v>734.4727050170798</v>
+        <v>734.4727050170795</v>
       </c>
       <c r="F23" t="n">
-        <v>479.0924379979552</v>
+        <v>479.0924379979551</v>
       </c>
       <c r="G23" t="n">
-        <v>222.247554496132</v>
+        <v>222.2475544961321</v>
       </c>
       <c r="H23" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I23" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J23" t="n">
-        <v>165.8044002066537</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K23" t="n">
-        <v>466.8072640914869</v>
+        <v>466.8072640914866</v>
       </c>
       <c r="L23" t="n">
-        <v>890.197940133687</v>
+        <v>890.1979401336862</v>
       </c>
       <c r="M23" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241077</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.156298338518</v>
+        <v>1831.156298338517</v>
       </c>
       <c r="O23" t="n">
         <v>2216.776785817476</v>
@@ -6008,22 +6008,22 @@
         <v>2513.737490374423</v>
       </c>
       <c r="Q23" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R23" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="S23" t="n">
         <v>2642.504874309616</v>
       </c>
       <c r="T23" t="n">
-        <v>2579.053856917886</v>
+        <v>2579.053856917885</v>
       </c>
       <c r="U23" t="n">
         <v>2482.978498652447</v>
       </c>
       <c r="V23" t="n">
-        <v>2304.770148219093</v>
+        <v>2304.770148219094</v>
       </c>
       <c r="W23" t="n">
         <v>2101.006141747399</v>
@@ -6063,22 +6063,22 @@
         <v>112.5860206093153</v>
       </c>
       <c r="I24" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J24" t="n">
-        <v>137.637410226932</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K24" t="n">
-        <v>408.4665315604907</v>
+        <v>324.0258921043554</v>
       </c>
       <c r="L24" t="n">
-        <v>415.6411941488089</v>
+        <v>745.4325444865112</v>
       </c>
       <c r="M24" t="n">
-        <v>965.5393959095063</v>
+        <v>1295.330746247208</v>
       </c>
       <c r="N24" t="n">
-        <v>1543.386669804909</v>
+        <v>1543.38666980491</v>
       </c>
       <c r="O24" t="n">
         <v>1996.495802223876</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.97166113917596</v>
+        <v>73.97166113917606</v>
       </c>
       <c r="C25" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156138</v>
       </c>
       <c r="D25" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156138</v>
       </c>
       <c r="E25" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156138</v>
       </c>
       <c r="F25" t="n">
-        <v>63.12661527156133</v>
+        <v>63.12661527156138</v>
       </c>
       <c r="G25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="H25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K25" t="n">
         <v>111.7362197770138</v>
       </c>
       <c r="L25" t="n">
-        <v>244.2518486821072</v>
+        <v>244.2518486821071</v>
       </c>
       <c r="M25" t="n">
-        <v>395.8884463537868</v>
+        <v>395.8884463537867</v>
       </c>
       <c r="N25" t="n">
-        <v>547.1539221265539</v>
+        <v>547.1539221265538</v>
       </c>
       <c r="O25" t="n">
-        <v>675.9535187079202</v>
+        <v>675.9535187079201</v>
       </c>
       <c r="P25" t="n">
-        <v>764.8796484316744</v>
+        <v>764.8796484316742</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.8796484316744</v>
+        <v>764.8796484316742</v>
       </c>
       <c r="R25" t="n">
-        <v>764.8796484316744</v>
+        <v>764.8796484316742</v>
       </c>
       <c r="S25" t="n">
-        <v>713.7570417162864</v>
+        <v>713.7570417162863</v>
       </c>
       <c r="T25" t="n">
-        <v>640.2846559892134</v>
+        <v>640.2846559892132</v>
       </c>
       <c r="U25" t="n">
-        <v>511.8772845377828</v>
+        <v>463.8517403065563</v>
       </c>
       <c r="V25" t="n">
-        <v>409.9129037669105</v>
+        <v>361.8873595356839</v>
       </c>
       <c r="W25" t="n">
-        <v>282.5274259550147</v>
+        <v>234.501881723788</v>
       </c>
       <c r="X25" t="n">
-        <v>210.0458855210955</v>
+        <v>162.0203412898688</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.7816503840777</v>
+        <v>98.75610615285088</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1798.089007601438</v>
+        <v>1798.089007601437</v>
       </c>
       <c r="C26" t="n">
-        <v>1520.826706428217</v>
+        <v>1520.826706428215</v>
       </c>
       <c r="D26" t="n">
-        <v>1252.674199149412</v>
+        <v>1252.67419914941</v>
       </c>
       <c r="E26" t="n">
-        <v>962.5599367494901</v>
+        <v>962.5599367494892</v>
       </c>
       <c r="F26" t="n">
-        <v>653.0802035536321</v>
+        <v>653.0802035536312</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1358538750756</v>
+        <v>342.1358538750752</v>
       </c>
       <c r="H26" t="n">
         <v>118.9856039730064</v>
       </c>
       <c r="I26" t="n">
-        <v>69.66039796432631</v>
+        <v>69.66039796432629</v>
       </c>
       <c r="J26" t="n">
         <v>284.8565228900246</v>
@@ -6236,40 +6236,40 @@
         <v>1794.268913393973</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.762908492647</v>
+        <v>2360.562402981254</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.971891461446</v>
+        <v>2790.971891461445</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.521091508235</v>
+        <v>3190.521091508234</v>
       </c>
       <c r="Q26" t="n">
-        <v>3439.210635163488</v>
+        <v>3439.210635163487</v>
       </c>
       <c r="R26" t="n">
-        <v>3483.019898216315</v>
+        <v>3483.019898216314</v>
       </c>
       <c r="S26" t="n">
-        <v>3411.586767809363</v>
+        <v>3411.586767809361</v>
       </c>
       <c r="T26" t="n">
-        <v>3294.036284240899</v>
+        <v>3294.036284240897</v>
       </c>
       <c r="U26" t="n">
-        <v>3143.861459798727</v>
+        <v>3143.861459798725</v>
       </c>
       <c r="V26" t="n">
-        <v>2911.553643188639</v>
+        <v>2911.553643188638</v>
       </c>
       <c r="W26" t="n">
-        <v>2653.690170540212</v>
+        <v>2653.69017054021</v>
       </c>
       <c r="X26" t="n">
-        <v>2376.331487555676</v>
+        <v>2376.331487555675</v>
       </c>
       <c r="Y26" t="n">
-        <v>2087.461089625486</v>
+        <v>2087.461089625484</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>636.6539818636261</v>
       </c>
       <c r="E27" t="n">
-        <v>489.6259719204974</v>
+        <v>489.6259719204972</v>
       </c>
       <c r="F27" t="n">
-        <v>354.9321738703717</v>
+        <v>354.9321738703716</v>
       </c>
       <c r="G27" t="n">
-        <v>226.4648728856924</v>
+        <v>226.4648728856923</v>
       </c>
       <c r="H27" t="n">
         <v>129.0496478028449</v>
       </c>
       <c r="I27" t="n">
-        <v>69.66039796432631</v>
+        <v>69.66039796432629</v>
       </c>
       <c r="J27" t="n">
-        <v>69.66039796432631</v>
+        <v>154.1010374204616</v>
       </c>
       <c r="K27" t="n">
-        <v>69.66039796432631</v>
+        <v>424.9301587540203</v>
       </c>
       <c r="L27" t="n">
-        <v>491.0670503464821</v>
+        <v>432.1048213423388</v>
       </c>
       <c r="M27" t="n">
-        <v>1040.965252107179</v>
+        <v>982.0030231030362</v>
       </c>
       <c r="N27" t="n">
-        <v>1618.812526002582</v>
+        <v>1559.850296998439</v>
       </c>
       <c r="O27" t="n">
-        <v>2071.921658421549</v>
+        <v>2012.959429417406</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.902565807493</v>
+        <v>2363.94033680335</v>
       </c>
       <c r="Q27" t="n">
         <v>2554.390286538429</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>427.8819101788158</v>
+        <v>427.8819101788155</v>
       </c>
       <c r="C28" t="n">
-        <v>362.9373981344676</v>
+        <v>362.9373981344672</v>
       </c>
       <c r="D28" t="n">
-        <v>314.5369624562017</v>
+        <v>314.5369624562014</v>
       </c>
       <c r="E28" t="n">
-        <v>267.199405711492</v>
+        <v>267.1994057114917</v>
       </c>
       <c r="F28" t="n">
-        <v>219.3902082312405</v>
+        <v>219.3902082312403</v>
       </c>
       <c r="G28" t="n">
-        <v>155.3608975537423</v>
+        <v>155.3608975537421</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6066451955815</v>
+        <v>102.6066451955814</v>
       </c>
       <c r="I28" t="n">
-        <v>69.66039796432631</v>
+        <v>69.66039796432629</v>
       </c>
       <c r="J28" t="n">
-        <v>128.5606223067507</v>
+        <v>128.5606223067508</v>
       </c>
       <c r="K28" t="n">
-        <v>289.6885668028093</v>
+        <v>289.688566802809</v>
       </c>
       <c r="L28" t="n">
-        <v>524.792691197744</v>
+        <v>524.7926911977438</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0177843592651</v>
+        <v>779.0177843592646</v>
       </c>
       <c r="N28" t="n">
         <v>1032.871755621873</v>
       </c>
       <c r="O28" t="n">
-        <v>1264.259847693082</v>
+        <v>1264.259847693081</v>
       </c>
       <c r="P28" t="n">
         <v>1455.774472906677</v>
@@ -6409,7 +6409,7 @@
         <v>1503.560082653956</v>
       </c>
       <c r="S28" t="n">
-        <v>1398.338009761835</v>
+        <v>1398.338009761834</v>
       </c>
       <c r="T28" t="n">
         <v>1270.766157858028</v>
@@ -6418,16 +6418,16 @@
         <v>1088.259320229864</v>
       </c>
       <c r="V28" t="n">
-        <v>932.1954732822579</v>
+        <v>932.1954732822576</v>
       </c>
       <c r="W28" t="n">
-        <v>750.7105292936285</v>
+        <v>750.7105292936283</v>
       </c>
       <c r="X28" t="n">
-        <v>624.1295226829757</v>
+        <v>624.1295226829756</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.7658213692242</v>
+        <v>506.7658213692238</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1252.674199149412</v>
       </c>
       <c r="E29" t="n">
-        <v>962.5599367494899</v>
+        <v>962.5599367494901</v>
       </c>
       <c r="F29" t="n">
-        <v>653.0802035536317</v>
+        <v>653.080203553632</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1358538750756</v>
+        <v>342.135853875076</v>
       </c>
       <c r="H29" t="n">
-        <v>118.9856039730065</v>
+        <v>118.9856039730064</v>
       </c>
       <c r="I29" t="n">
         <v>69.66039796432631</v>
@@ -6467,19 +6467,19 @@
         <v>688.4478822646993</v>
       </c>
       <c r="L29" t="n">
-        <v>1156.627559308133</v>
+        <v>1214.42705379674</v>
       </c>
       <c r="M29" t="n">
-        <v>1736.469418905365</v>
+        <v>1794.268913393973</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.762908492647</v>
+        <v>2360.562402981254</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.971891461446</v>
+        <v>2848.771385950054</v>
       </c>
       <c r="P29" t="n">
-        <v>3190.521091508235</v>
+        <v>3248.320585996843</v>
       </c>
       <c r="Q29" t="n">
         <v>3439.210635163488</v>
@@ -6497,16 +6497,16 @@
         <v>3143.861459798726</v>
       </c>
       <c r="V29" t="n">
-        <v>2911.553643188638</v>
+        <v>2911.553643188639</v>
       </c>
       <c r="W29" t="n">
-        <v>2653.690170540211</v>
+        <v>2653.690170540212</v>
       </c>
       <c r="X29" t="n">
         <v>2376.331487555676</v>
       </c>
       <c r="Y29" t="n">
-        <v>2087.461089625485</v>
+        <v>2087.461089625486</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>69.66039796432631</v>
       </c>
       <c r="J30" t="n">
-        <v>69.66039796432631</v>
+        <v>154.1010374204616</v>
       </c>
       <c r="K30" t="n">
-        <v>69.66039796432631</v>
+        <v>424.9301587540203</v>
       </c>
       <c r="L30" t="n">
-        <v>491.0670503464821</v>
+        <v>846.336811136176</v>
       </c>
       <c r="M30" t="n">
-        <v>1040.965252107179</v>
+        <v>1396.235012896873</v>
       </c>
       <c r="N30" t="n">
-        <v>1618.812526002582</v>
+        <v>1974.082286792276</v>
       </c>
       <c r="O30" t="n">
-        <v>2071.921658421549</v>
+        <v>2012.959429417406</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.902565807493</v>
+        <v>2363.94033680335</v>
       </c>
       <c r="Q30" t="n">
         <v>2554.390286538429</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>427.8819101788158</v>
+        <v>427.8819101788156</v>
       </c>
       <c r="C31" t="n">
-        <v>362.9373981344675</v>
+        <v>362.9373981344673</v>
       </c>
       <c r="D31" t="n">
-        <v>314.5369624562017</v>
+        <v>314.5369624562015</v>
       </c>
       <c r="E31" t="n">
-        <v>267.199405711492</v>
+        <v>267.1994057114919</v>
       </c>
       <c r="F31" t="n">
-        <v>219.3902082312406</v>
+        <v>219.3902082312405</v>
       </c>
       <c r="G31" t="n">
-        <v>155.3608975537423</v>
+        <v>155.3608975537422</v>
       </c>
       <c r="H31" t="n">
         <v>102.6066451955815</v>
@@ -6622,13 +6622,13 @@
         <v>128.5606223067507</v>
       </c>
       <c r="K31" t="n">
-        <v>289.6885668028092</v>
+        <v>289.6885668028093</v>
       </c>
       <c r="L31" t="n">
         <v>524.792691197744</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0177843592651</v>
+        <v>779.017784359265</v>
       </c>
       <c r="N31" t="n">
         <v>1032.871755621873</v>
@@ -6640,31 +6640,31 @@
         <v>1455.774472906677</v>
       </c>
       <c r="Q31" t="n">
-        <v>1538.564248740836</v>
+        <v>1538.564248740835</v>
       </c>
       <c r="R31" t="n">
         <v>1503.560082653956</v>
       </c>
       <c r="S31" t="n">
-        <v>1398.338009761835</v>
+        <v>1398.338009761834</v>
       </c>
       <c r="T31" t="n">
-        <v>1270.766157858028</v>
+        <v>1270.766157858027</v>
       </c>
       <c r="U31" t="n">
-        <v>1088.259320229864</v>
+        <v>1088.259320229863</v>
       </c>
       <c r="V31" t="n">
-        <v>932.1954732822578</v>
+        <v>932.1954732822571</v>
       </c>
       <c r="W31" t="n">
-        <v>750.7105292936284</v>
+        <v>750.7105292936278</v>
       </c>
       <c r="X31" t="n">
-        <v>624.1295226829756</v>
+        <v>624.1295226829751</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.7658213692241</v>
+        <v>506.7658213692239</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>544.4583650291038</v>
       </c>
       <c r="G32" t="n">
-        <v>266.3687689783363</v>
+        <v>266.3687689783371</v>
       </c>
       <c r="H32" t="n">
-        <v>76.07327270405695</v>
+        <v>76.073272704057</v>
       </c>
       <c r="I32" t="n">
         <v>59.60282032316627</v>
       </c>
       <c r="J32" t="n">
-        <v>172.2104497590232</v>
+        <v>306.999889279461</v>
       </c>
       <c r="K32" t="n">
-        <v>576.3100951061035</v>
+        <v>652.320302189527</v>
       </c>
       <c r="L32" t="n">
-        <v>999.7007711483034</v>
+        <v>1210.500417752165</v>
       </c>
       <c r="M32" t="n">
-        <v>1476.954135255694</v>
+        <v>1687.753781859555</v>
       </c>
       <c r="N32" t="n">
-        <v>1940.659129353135</v>
+        <v>2151.458775956996</v>
       </c>
       <c r="O32" t="n">
-        <v>2326.279616832093</v>
+        <v>2537.079263435954</v>
       </c>
       <c r="P32" t="n">
-        <v>2758.029760909478</v>
+        <v>2834.039967992901</v>
       </c>
       <c r="Q32" t="n">
-        <v>2904.13080907489</v>
+        <v>2980.141016158314</v>
       </c>
       <c r="R32" t="n">
         <v>2980.141016158314</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>187.8410571431293</v>
+        <v>187.8410571431297</v>
       </c>
       <c r="C34" t="n">
-        <v>155.7512987265705</v>
+        <v>155.7512987265709</v>
       </c>
       <c r="D34" t="n">
-        <v>140.2056166760942</v>
+        <v>140.2056166760945</v>
       </c>
       <c r="E34" t="n">
-        <v>125.722813559174</v>
+        <v>125.7228135591742</v>
       </c>
       <c r="F34" t="n">
-        <v>110.768369706712</v>
+        <v>110.7683697067122</v>
       </c>
       <c r="G34" t="n">
-        <v>79.59381265700326</v>
+        <v>79.59381265700337</v>
       </c>
       <c r="H34" t="n">
-        <v>59.69431392663196</v>
+        <v>59.69431392663201</v>
       </c>
       <c r="I34" t="n">
         <v>59.60282032316627</v>
@@ -6865,43 +6865,43 @@
         <v>250.6578982344767</v>
       </c>
       <c r="M34" t="n">
-        <v>402.2944959061563</v>
+        <v>537.0839354265941</v>
       </c>
       <c r="N34" t="n">
-        <v>553.5599716789234</v>
+        <v>688.3494111993612</v>
       </c>
       <c r="O34" t="n">
-        <v>682.3595682602897</v>
+        <v>817.1490077807275</v>
       </c>
       <c r="P34" t="n">
-        <v>906.0751375044817</v>
+        <v>906.0751375044816</v>
       </c>
       <c r="Q34" t="n">
-        <v>1002.830613055044</v>
+        <v>1002.830613055045</v>
       </c>
       <c r="R34" t="n">
-        <v>1000.681200595954</v>
+        <v>1000.681200595955</v>
       </c>
       <c r="S34" t="n">
-        <v>928.313881331622</v>
+        <v>928.3138813316228</v>
       </c>
       <c r="T34" t="n">
-        <v>833.5967830556049</v>
+        <v>833.5967830556057</v>
       </c>
       <c r="U34" t="n">
-        <v>683.94469905523</v>
+        <v>683.9446990552308</v>
       </c>
       <c r="V34" t="n">
-        <v>560.7356057354135</v>
+        <v>560.7356057354142</v>
       </c>
       <c r="W34" t="n">
-        <v>412.1054153745736</v>
+        <v>412.1054153745741</v>
       </c>
       <c r="X34" t="n">
-        <v>318.3791623917102</v>
+        <v>318.3791623917107</v>
       </c>
       <c r="Y34" t="n">
-        <v>233.8702147057482</v>
+        <v>233.8702147057487</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1184.540542342339</v>
       </c>
       <c r="D35" t="n">
-        <v>970.4875012402679</v>
+        <v>970.4875012402681</v>
       </c>
       <c r="E35" t="n">
-        <v>734.4727050170798</v>
+        <v>734.47270501708</v>
       </c>
       <c r="F35" t="n">
-        <v>479.0924379979551</v>
+        <v>479.0924379979554</v>
       </c>
       <c r="G35" t="n">
-        <v>222.2475544961321</v>
+        <v>222.247554496132</v>
       </c>
       <c r="H35" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I35" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J35" t="n">
-        <v>165.8044002066538</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K35" t="n">
-        <v>466.807264091487</v>
+        <v>466.8072640914866</v>
       </c>
       <c r="L35" t="n">
-        <v>890.1979401336869</v>
+        <v>890.1979401336862</v>
       </c>
       <c r="M35" t="n">
         <v>1367.451304241077</v>
       </c>
       <c r="N35" t="n">
-        <v>1831.156298338518</v>
+        <v>1831.156298338517</v>
       </c>
       <c r="O35" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817476</v>
       </c>
       <c r="P35" t="n">
         <v>2513.737490374423</v>
       </c>
       <c r="Q35" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R35" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="S35" t="n">
         <v>2642.504874309616</v>
@@ -6971,10 +6971,10 @@
         <v>2482.978498652447</v>
       </c>
       <c r="V35" t="n">
-        <v>2304.770148219093</v>
+        <v>2304.770148219094</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.006141747399</v>
+        <v>2101.0061417474</v>
       </c>
       <c r="X35" t="n">
         <v>1877.746924939598</v>
@@ -7005,25 +7005,25 @@
         <v>338.468546676842</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0012456921628</v>
+        <v>210.0012456921627</v>
       </c>
       <c r="H36" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I36" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J36" t="n">
-        <v>53.19677077079671</v>
+        <v>137.637410226932</v>
       </c>
       <c r="K36" t="n">
-        <v>184.6844915017318</v>
+        <v>408.4665315604907</v>
       </c>
       <c r="L36" t="n">
-        <v>606.0911438838876</v>
+        <v>829.8731839426465</v>
       </c>
       <c r="M36" t="n">
-        <v>1155.989345644585</v>
+        <v>1379.771385703344</v>
       </c>
       <c r="N36" t="n">
         <v>1733.836619539988</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.5469811549061</v>
+        <v>73.97166113917601</v>
       </c>
       <c r="C37" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156135</v>
       </c>
       <c r="D37" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156135</v>
       </c>
       <c r="E37" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156135</v>
       </c>
       <c r="F37" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156135</v>
       </c>
       <c r="G37" t="n">
-        <v>97.77209078652673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77209078652673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.77209078652673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J37" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K37" t="n">
         <v>111.7362197770138</v>
@@ -7120,25 +7120,25 @@
         <v>764.8796484316742</v>
       </c>
       <c r="S37" t="n">
-        <v>710.30681750079</v>
+        <v>713.7570417162863</v>
       </c>
       <c r="T37" t="n">
-        <v>636.8344317737169</v>
+        <v>640.2846559892132</v>
       </c>
       <c r="U37" t="n">
-        <v>508.4270603222863</v>
+        <v>511.8772845377825</v>
       </c>
       <c r="V37" t="n">
-        <v>406.4626795514139</v>
+        <v>361.8873595356837</v>
       </c>
       <c r="W37" t="n">
-        <v>279.077201739518</v>
+        <v>234.5018817237878</v>
       </c>
       <c r="X37" t="n">
-        <v>206.5956613055988</v>
+        <v>162.0203412898687</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3314261685809</v>
+        <v>98.75610615285079</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1407.703377338827</v>
+        <v>1407.703377338826</v>
       </c>
       <c r="C38" t="n">
         <v>1184.540542342339</v>
       </c>
       <c r="D38" t="n">
-        <v>970.4875012402681</v>
+        <v>970.487501240267</v>
       </c>
       <c r="E38" t="n">
-        <v>734.47270501708</v>
+        <v>734.4727050170789</v>
       </c>
       <c r="F38" t="n">
-        <v>479.0924379979554</v>
+        <v>479.0924379979542</v>
       </c>
       <c r="G38" t="n">
         <v>222.2475544961321</v>
       </c>
       <c r="H38" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I38" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J38" t="n">
-        <v>165.8044002066536</v>
+        <v>165.8044002066531</v>
       </c>
       <c r="K38" t="n">
-        <v>466.8072640914868</v>
+        <v>466.8072640914863</v>
       </c>
       <c r="L38" t="n">
-        <v>890.1979401336866</v>
+        <v>890.1979401336862</v>
       </c>
       <c r="M38" t="n">
         <v>1367.451304241077</v>
       </c>
       <c r="N38" t="n">
-        <v>1831.156298338518</v>
+        <v>1831.156298338517</v>
       </c>
       <c r="O38" t="n">
         <v>2216.776785817476</v>
@@ -7193,31 +7193,31 @@
         <v>2513.737490374423</v>
       </c>
       <c r="Q38" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R38" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.504874309616</v>
+        <v>2642.504874309615</v>
       </c>
       <c r="T38" t="n">
         <v>2579.053856917885</v>
       </c>
       <c r="U38" t="n">
-        <v>2482.978498652447</v>
+        <v>2482.978498652446</v>
       </c>
       <c r="V38" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.770148219092</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.0061417474</v>
+        <v>2101.006141747398</v>
       </c>
       <c r="X38" t="n">
-        <v>1877.746924939598</v>
+        <v>1877.746924939597</v>
       </c>
       <c r="Y38" t="n">
-        <v>1642.975993186141</v>
+        <v>1642.975993186139</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7242,34 @@
         <v>338.468546676842</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0012456921628</v>
+        <v>210.0012456921627</v>
       </c>
       <c r="H39" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I39" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J39" t="n">
-        <v>53.19677077079671</v>
+        <v>137.637410226932</v>
       </c>
       <c r="K39" t="n">
-        <v>53.19677077079671</v>
+        <v>408.4665315604907</v>
       </c>
       <c r="L39" t="n">
-        <v>474.6034231529525</v>
+        <v>829.8731839426465</v>
       </c>
       <c r="M39" t="n">
-        <v>1024.50162491365</v>
+        <v>1379.771385703344</v>
       </c>
       <c r="N39" t="n">
-        <v>1602.348898809053</v>
+        <v>1543.38666980491</v>
       </c>
       <c r="O39" t="n">
-        <v>2055.45803122802</v>
+        <v>1996.495802223876</v>
       </c>
       <c r="P39" t="n">
-        <v>2406.438938613964</v>
+        <v>2347.476709609821</v>
       </c>
       <c r="Q39" t="n">
         <v>2537.926659344899</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.9972053704023</v>
+        <v>73.97166113917618</v>
       </c>
       <c r="C40" t="n">
-        <v>111.1521595027876</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="D40" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="E40" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="F40" t="n">
-        <v>107.7019352872914</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="G40" t="n">
-        <v>97.77209078652673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77209078652673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I40" t="n">
-        <v>97.77209078652673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J40" t="n">
-        <v>53.19677077079671</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K40" t="n">
         <v>111.7362197770138</v>
@@ -7351,31 +7351,31 @@
         <v>764.8796484316742</v>
       </c>
       <c r="Q40" t="n">
-        <v>764.8796484316742</v>
+        <v>744.6789345701474</v>
       </c>
       <c r="R40" t="n">
-        <v>764.8796484316742</v>
+        <v>744.6789345701474</v>
       </c>
       <c r="S40" t="n">
-        <v>713.7570417162863</v>
+        <v>693.5563278547593</v>
       </c>
       <c r="T40" t="n">
-        <v>640.2846559892132</v>
+        <v>592.2591117579875</v>
       </c>
       <c r="U40" t="n">
-        <v>511.8772845377825</v>
+        <v>463.8517403065567</v>
       </c>
       <c r="V40" t="n">
-        <v>409.9129037669101</v>
+        <v>361.8873595356843</v>
       </c>
       <c r="W40" t="n">
-        <v>282.5274259550142</v>
+        <v>234.5018817237883</v>
       </c>
       <c r="X40" t="n">
-        <v>210.045885521095</v>
+        <v>162.020341289869</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.7816503840771</v>
+        <v>98.75610615285105</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1407.703377338828</v>
+        <v>1407.703377338827</v>
       </c>
       <c r="C41" t="n">
-        <v>1184.54054234234</v>
+        <v>1184.540542342339</v>
       </c>
       <c r="D41" t="n">
-        <v>970.4875012402688</v>
+        <v>970.4875012402679</v>
       </c>
       <c r="E41" t="n">
-        <v>734.4727050170807</v>
+        <v>734.4727050170798</v>
       </c>
       <c r="F41" t="n">
-        <v>479.092437997956</v>
+        <v>479.0924379979551</v>
       </c>
       <c r="G41" t="n">
         <v>222.247554496132</v>
       </c>
       <c r="H41" t="n">
-        <v>53.19677077079672</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I41" t="n">
-        <v>53.19677077079712</v>
+        <v>53.19677077079621</v>
       </c>
       <c r="J41" t="n">
-        <v>165.804400206654</v>
+        <v>165.8044002066531</v>
       </c>
       <c r="K41" t="n">
-        <v>466.8072640914872</v>
+        <v>466.8072640914863</v>
       </c>
       <c r="L41" t="n">
-        <v>890.1979401336871</v>
+        <v>890.1979401336862</v>
       </c>
       <c r="M41" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241077</v>
       </c>
       <c r="N41" t="n">
-        <v>1831.156298338518</v>
+        <v>1831.156298338517</v>
       </c>
       <c r="O41" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817476</v>
       </c>
       <c r="P41" t="n">
         <v>2513.737490374423</v>
       </c>
       <c r="Q41" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R41" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.504874309617</v>
+        <v>2642.504874309616</v>
       </c>
       <c r="T41" t="n">
-        <v>2579.053856917886</v>
+        <v>2579.053856917885</v>
       </c>
       <c r="U41" t="n">
-        <v>2482.978498652448</v>
+        <v>2482.978498652447</v>
       </c>
       <c r="V41" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.770148219093</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.0061417474</v>
+        <v>2101.006141747399</v>
       </c>
       <c r="X41" t="n">
-        <v>1877.746924939599</v>
+        <v>1877.746924939598</v>
       </c>
       <c r="Y41" t="n">
-        <v>1642.975993186142</v>
+        <v>1642.975993186141</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.7326644389296</v>
+        <v>1042.644543633866</v>
       </c>
       <c r="C42" t="n">
-        <v>759.0289916798844</v>
+        <v>880.9408708748208</v>
       </c>
       <c r="D42" t="n">
-        <v>620.1903546700964</v>
+        <v>742.1022338650329</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1623447269677</v>
+        <v>595.0742239219041</v>
       </c>
       <c r="F42" t="n">
-        <v>338.468546676842</v>
+        <v>460.3804258717785</v>
       </c>
       <c r="G42" t="n">
-        <v>210.0012456921628</v>
+        <v>331.9131248870992</v>
       </c>
       <c r="H42" t="n">
-        <v>112.5860206093153</v>
+        <v>234.4978998042517</v>
       </c>
       <c r="I42" t="n">
-        <v>53.19677077079672</v>
+        <v>175.1086499657332</v>
       </c>
       <c r="J42" t="n">
-        <v>137.637410226932</v>
+        <v>175.1086499657332</v>
       </c>
       <c r="K42" t="n">
-        <v>408.4665315604907</v>
+        <v>445.9377712992919</v>
       </c>
       <c r="L42" t="n">
-        <v>829.8731839426465</v>
+        <v>867.3444236814477</v>
       </c>
       <c r="M42" t="n">
-        <v>1379.771385703344</v>
+        <v>1417.242625442145</v>
       </c>
       <c r="N42" t="n">
-        <v>1957.618659598747</v>
+        <v>1665.298548999845</v>
       </c>
       <c r="O42" t="n">
-        <v>2186.945751958955</v>
+        <v>2118.407681418812</v>
       </c>
       <c r="P42" t="n">
-        <v>2537.926659344899</v>
+        <v>2469.388588804757</v>
       </c>
       <c r="Q42" t="n">
-        <v>2537.926659344899</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R42" t="n">
-        <v>2494.359640138371</v>
+        <v>2616.271519333307</v>
       </c>
       <c r="S42" t="n">
-        <v>2346.411809867221</v>
+        <v>2468.323689062157</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.77952126865</v>
+        <v>2280.691400463586</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.301913011173</v>
+        <v>2062.213792206109</v>
       </c>
       <c r="V42" t="n">
-        <v>1711.906290459507</v>
+        <v>1833.818169654443</v>
       </c>
       <c r="W42" t="n">
-        <v>1470.590421692817</v>
+        <v>1592.502300887753</v>
       </c>
       <c r="X42" t="n">
-        <v>1272.673433570612</v>
+        <v>1394.585312765548</v>
       </c>
       <c r="Y42" t="n">
-        <v>1080.152107220191</v>
+        <v>1202.063986415127</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.97166113917602</v>
+        <v>118.546981154906</v>
       </c>
       <c r="C43" t="n">
-        <v>63.12661527156136</v>
+        <v>107.7019352872914</v>
       </c>
       <c r="D43" t="n">
-        <v>63.12661527156136</v>
+        <v>107.7019352872914</v>
       </c>
       <c r="E43" t="n">
-        <v>63.12661527156136</v>
+        <v>107.7019352872914</v>
       </c>
       <c r="F43" t="n">
-        <v>63.12661527156136</v>
+        <v>107.7019352872914</v>
       </c>
       <c r="G43" t="n">
-        <v>53.19677077079672</v>
+        <v>97.77209078652672</v>
       </c>
       <c r="H43" t="n">
-        <v>53.19677077079672</v>
+        <v>97.77209078652672</v>
       </c>
       <c r="I43" t="n">
-        <v>53.19677077079672</v>
+        <v>97.77209078652672</v>
       </c>
       <c r="J43" t="n">
-        <v>53.19677077079672</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K43" t="n">
         <v>111.7362197770138</v>
@@ -7594,25 +7594,25 @@
         <v>764.8796484316742</v>
       </c>
       <c r="S43" t="n">
-        <v>665.7314974850598</v>
+        <v>713.7570417162863</v>
       </c>
       <c r="T43" t="n">
-        <v>592.2591117579867</v>
+        <v>636.8344317737168</v>
       </c>
       <c r="U43" t="n">
-        <v>463.8517403065561</v>
+        <v>508.4270603222861</v>
       </c>
       <c r="V43" t="n">
-        <v>361.8873595356837</v>
+        <v>406.4626795514137</v>
       </c>
       <c r="W43" t="n">
-        <v>234.5018817237878</v>
+        <v>279.0772017395179</v>
       </c>
       <c r="X43" t="n">
-        <v>162.0203412898687</v>
+        <v>206.5956613055987</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.7561061528508</v>
+        <v>143.3314261685808</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1407.703377338827</v>
+        <v>1407.703377338826</v>
       </c>
       <c r="C44" t="n">
-        <v>1184.540542342339</v>
+        <v>1184.540542342338</v>
       </c>
       <c r="D44" t="n">
-        <v>970.4875012402681</v>
+        <v>970.487501240267</v>
       </c>
       <c r="E44" t="n">
-        <v>734.4727050170798</v>
+        <v>734.4727050170791</v>
       </c>
       <c r="F44" t="n">
-        <v>479.0924379979554</v>
+        <v>479.0924379979547</v>
       </c>
       <c r="G44" t="n">
-        <v>222.247554496132</v>
+        <v>222.2475544961321</v>
       </c>
       <c r="H44" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="I44" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J44" t="n">
         <v>165.8044002066536</v>
       </c>
       <c r="K44" t="n">
-        <v>466.8072640914866</v>
+        <v>466.8072640914868</v>
       </c>
       <c r="L44" t="n">
-        <v>890.1979401336862</v>
+        <v>890.1979401336866</v>
       </c>
       <c r="M44" t="n">
         <v>1367.451304241077</v>
       </c>
       <c r="N44" t="n">
-        <v>1831.156298338517</v>
+        <v>1831.156298338518</v>
       </c>
       <c r="O44" t="n">
         <v>2216.776785817476</v>
@@ -7667,10 +7667,10 @@
         <v>2513.737490374423</v>
       </c>
       <c r="Q44" t="n">
-        <v>2659.838538539835</v>
+        <v>2659.838538539836</v>
       </c>
       <c r="R44" t="n">
-        <v>2659.838538539835</v>
+        <v>2659.838538539836</v>
       </c>
       <c r="S44" t="n">
         <v>2642.504874309616</v>
@@ -7682,16 +7682,16 @@
         <v>2482.978498652447</v>
       </c>
       <c r="V44" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.770148219093</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.0061417474</v>
+        <v>2101.006141747399</v>
       </c>
       <c r="X44" t="n">
-        <v>1877.746924939598</v>
+        <v>1877.746924939597</v>
       </c>
       <c r="Y44" t="n">
-        <v>1642.975993186141</v>
+        <v>1642.97599318614</v>
       </c>
     </row>
     <row r="45">
@@ -7716,34 +7716,34 @@
         <v>338.468546676842</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0012456921627</v>
+        <v>210.0012456921628</v>
       </c>
       <c r="H45" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I45" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J45" t="n">
-        <v>53.1967707707967</v>
+        <v>137.637410226932</v>
       </c>
       <c r="K45" t="n">
-        <v>53.1967707707967</v>
+        <v>408.4665315604907</v>
       </c>
       <c r="L45" t="n">
-        <v>474.6034231529525</v>
+        <v>829.8731839426465</v>
       </c>
       <c r="M45" t="n">
-        <v>1024.50162491365</v>
+        <v>1379.771385703344</v>
       </c>
       <c r="N45" t="n">
-        <v>1602.348898809053</v>
+        <v>1733.836619539988</v>
       </c>
       <c r="O45" t="n">
-        <v>2055.45803122802</v>
+        <v>2186.945751958955</v>
       </c>
       <c r="P45" t="n">
-        <v>2406.438938613964</v>
+        <v>2537.926659344899</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.926659344899</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.9972053704025</v>
+        <v>101.796491508875</v>
       </c>
       <c r="C46" t="n">
-        <v>111.1521595027879</v>
+        <v>90.95144564126021</v>
       </c>
       <c r="D46" t="n">
-        <v>111.1521595027879</v>
+        <v>90.95144564126021</v>
       </c>
       <c r="E46" t="n">
-        <v>111.1521595027879</v>
+        <v>90.95144564126021</v>
       </c>
       <c r="F46" t="n">
-        <v>111.1521595027879</v>
+        <v>90.95144564126021</v>
       </c>
       <c r="G46" t="n">
-        <v>53.1967707707967</v>
+        <v>81.02160114049548</v>
       </c>
       <c r="H46" t="n">
-        <v>53.1967707707967</v>
+        <v>81.02160114049548</v>
       </c>
       <c r="I46" t="n">
-        <v>53.1967707707967</v>
+        <v>81.02160114049548</v>
       </c>
       <c r="J46" t="n">
-        <v>53.1967707707967</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="K46" t="n">
         <v>111.7362197770138</v>
@@ -7825,31 +7825,31 @@
         <v>764.8796484316742</v>
       </c>
       <c r="Q46" t="n">
-        <v>764.8796484316742</v>
+        <v>744.6789345701474</v>
       </c>
       <c r="R46" t="n">
-        <v>764.8796484316742</v>
+        <v>744.6789345701474</v>
       </c>
       <c r="S46" t="n">
-        <v>713.7570417162863</v>
+        <v>693.5563278547593</v>
       </c>
       <c r="T46" t="n">
-        <v>640.2846559892132</v>
+        <v>620.0839421276862</v>
       </c>
       <c r="U46" t="n">
-        <v>511.8772845377825</v>
+        <v>491.6765706762554</v>
       </c>
       <c r="V46" t="n">
-        <v>409.9129037669102</v>
+        <v>389.712189905383</v>
       </c>
       <c r="W46" t="n">
-        <v>282.5274259550143</v>
+        <v>262.3267120934871</v>
       </c>
       <c r="X46" t="n">
-        <v>210.0458855210952</v>
+        <v>189.8451716595678</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.7816503840773</v>
+        <v>126.5809365225498</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>156.705044744887</v>
       </c>
       <c r="K2" t="n">
-        <v>188.8326827569781</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M2" t="n">
-        <v>197.1659932800904</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P2" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>112.660818983621</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
@@ -8067,16 +8067,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>116.7248198506397</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>125.8691273940425</v>
+        <v>125.4646959280655</v>
       </c>
       <c r="P3" t="n">
         <v>118.8638848070747</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,19 +8137,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
         <v>119.6034782614375</v>
       </c>
       <c r="M4" t="n">
-        <v>122.4824467743834</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N4" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P4" t="n">
         <v>121.9136820728638</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L5" t="n">
         <v>191.5602121631146</v>
@@ -8225,16 +8225,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>196.4077929551615</v>
+        <v>196.0033614891845</v>
       </c>
       <c r="O5" t="n">
-        <v>196.5600440970748</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P5" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,7 +8295,7 @@
         <v>113.0652504495981</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
@@ -8307,10 +8307,10 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>125.4646959280655</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>118.8638848070747</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q6" t="n">
         <v>123.7448702278239</v>
@@ -8374,19 +8374,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>119.1990467954604</v>
       </c>
       <c r="M7" t="n">
-        <v>122.4824467743834</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
         <v>113.7541836609333</v>
       </c>
       <c r="O7" t="n">
-        <v>122.5056162750536</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P7" t="n">
         <v>121.9136820728638</v>
@@ -8459,7 +8459,7 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N8" t="n">
         <v>322.1275134696619</v>
@@ -8468,7 +8468,7 @@
         <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>222.7360773804728</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8535,7 +8535,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -8547,7 +8547,7 @@
         <v>251.5888479085429</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
         <v>249.4645907423243</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>464.6676933774012</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>290.0225105479315</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.72678745551454</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>78.62477073431408</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>203.0559186187534</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9018,7 +9018,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>285.9785503539315</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355791</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,13 +9240,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>78.62477073431408</v>
+        <v>78.6247707343141</v>
       </c>
       <c r="K18" t="n">
-        <v>70.24003909255563</v>
+        <v>70.24003909255565</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>422.5346418196055</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.5426669817125</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9480,13 +9480,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>279.9148258861584</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>187.0004315680944</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>59.4754301552065</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>78.62477073431404</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>63.67629758759026</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>290.0225105479307</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,13 +9951,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>78.62477073431401</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>70.24003909255552</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>63.67629758759058</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.5426669817119</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>78.62477073431404</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>70.24003909255555</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10203,13 +10203,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>93.60486375284208</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.542666981712</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>78.62477073431404</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>203.0559186187526</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>397.1026219408025</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236954</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>78.62477073431404</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>70.24003909255555</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>204.7289353397131</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.5426669817115</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>78.62477073431404</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>290.02251054793</v>
       </c>
       <c r="O42" t="n">
-        <v>285.9785503539314</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.72678745551448</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>78.62477073431404</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>70.24003909255555</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>397.1026219408025</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.5426669817115</v>
+        <v>80.72678745551448</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.5588571917057</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4654318517981</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.9992433909467</v>
+        <v>241.9992433909468</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>69.9124499364919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>276.3653339098418</v>
       </c>
       <c r="X11" t="n">
-        <v>238.3311297950665</v>
+        <v>219.0221105476125</v>
       </c>
       <c r="Y11" t="n">
-        <v>307.0621899387871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.91372301553688</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>85.37556291180324</v>
+        <v>85.37556291180329</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.94467716516112</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30720582247764</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>53.69728074684113</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>93.79610268470559</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>201.7622652397811</v>
       </c>
       <c r="V13" t="n">
-        <v>175.5837044660283</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>146.3956925324447</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.076359983605576</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9899983966087</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>308.2936157638209</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4654318517981</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.9992433909467</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.799295090782</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>137.4554747206781</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>169.7535721856485</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>276.3653339098416</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.0621899387871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>99.1755680664027</v>
       </c>
       <c r="C16" t="n">
-        <v>85.37556291180324</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.99692730938163</v>
+        <v>67.78009864668965</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.41160149334733</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.46951355862167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>73.3072058224776</v>
       </c>
       <c r="I16" t="n">
-        <v>53.69728074684109</v>
+        <v>53.69728074684103</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.73462041390935</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>157.2355574917522</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.2705602885124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364548.3318755346</v>
+        <v>364548.3318755347</v>
       </c>
       <c r="C2" t="n">
         <v>364548.3318755346</v>
       </c>
       <c r="D2" t="n">
-        <v>364621.4287347364</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="E2" t="n">
-        <v>316739.2828129409</v>
+        <v>316739.282812941</v>
       </c>
       <c r="F2" t="n">
         <v>316739.282812941</v>
       </c>
       <c r="G2" t="n">
-        <v>364621.4287347358</v>
+        <v>364621.428734736</v>
       </c>
       <c r="H2" t="n">
         <v>364621.428734736</v>
@@ -26338,13 +26338,13 @@
         <v>364621.4287347352</v>
       </c>
       <c r="K2" t="n">
-        <v>364621.4287347353</v>
+        <v>364621.4287347351</v>
       </c>
       <c r="L2" t="n">
-        <v>364621.4287347362</v>
+        <v>364621.4287347361</v>
       </c>
       <c r="M2" t="n">
-        <v>364621.4287347361</v>
+        <v>364621.4287347359</v>
       </c>
       <c r="N2" t="n">
         <v>364621.4287347358</v>
@@ -26372,28 +26372,28 @@
         <v>39052.31678341926</v>
       </c>
       <c r="E3" t="n">
-        <v>320637.2306710272</v>
+        <v>320637.2306710271</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.71771218361599e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>59711.17400229179</v>
+        <v>59711.17400229171</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.246413401962855e-10</v>
+        <v>1.604581001402039e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>79652.70864621307</v>
+        <v>79652.70864621308</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.71771218361599e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>85732.13887550106</v>
+        <v>85732.13887550091</v>
       </c>
       <c r="M3" t="n">
         <v>128756.939247708</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23188.62033293359</v>
+        <v>23188.62033293369</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378048.9552273333</v>
+        <v>378048.9552273332</v>
       </c>
       <c r="C4" t="n">
         <v>378048.9552273332</v>
@@ -26424,25 +26424,25 @@
         <v>355758.3782119924</v>
       </c>
       <c r="E4" t="n">
-        <v>198973.2420400349</v>
+        <v>198973.2420400348</v>
       </c>
       <c r="F4" t="n">
         <v>198973.2420400349</v>
       </c>
       <c r="G4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
       <c r="H4" t="n">
         <v>256325.1475579108</v>
       </c>
       <c r="I4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
       <c r="J4" t="n">
         <v>257395.215405285</v>
       </c>
       <c r="K4" t="n">
-        <v>257395.215405285</v>
+        <v>257395.2154052851</v>
       </c>
       <c r="L4" t="n">
         <v>256721.8475438231</v>
@@ -26457,7 +26457,7 @@
         <v>256325.1475579108</v>
       </c>
       <c r="P4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
     </row>
     <row r="5">
@@ -26488,25 +26488,25 @@
         <v>56264.58338957123</v>
       </c>
       <c r="I5" t="n">
-        <v>56264.58338957126</v>
+        <v>56264.58338957124</v>
       </c>
       <c r="J5" t="n">
-        <v>64274.33291486204</v>
+        <v>64274.33291486203</v>
       </c>
       <c r="K5" t="n">
-        <v>64274.33291486204</v>
+        <v>64274.33291486205</v>
       </c>
       <c r="L5" t="n">
         <v>59365.0195274877</v>
       </c>
       <c r="M5" t="n">
-        <v>56264.58338957125</v>
+        <v>56264.58338957124</v>
       </c>
       <c r="N5" t="n">
-        <v>56264.58338957125</v>
+        <v>56264.58338957124</v>
       </c>
       <c r="O5" t="n">
-        <v>56264.58338957126</v>
+        <v>56264.58338957124</v>
       </c>
       <c r="P5" t="n">
         <v>56264.58338957124</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51091.28540457322</v>
+        <v>-51091.67012488469</v>
       </c>
       <c r="C6" t="n">
-        <v>-47736.81182180085</v>
+        <v>-47737.1965421125</v>
       </c>
       <c r="D6" t="n">
-        <v>-72069.21373795919</v>
+        <v>-72069.21373795925</v>
       </c>
       <c r="E6" t="n">
-        <v>-252860.9499286941</v>
+        <v>-253112.9612230191</v>
       </c>
       <c r="F6" t="n">
-        <v>67776.28074233323</v>
+        <v>67524.26944800786</v>
       </c>
       <c r="G6" t="n">
-        <v>-7679.476215038012</v>
+        <v>-7679.476215037663</v>
       </c>
       <c r="H6" t="n">
+        <v>52031.697787254</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52031.69778725378</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-36700.82823162486</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42951.88041458795</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-37197.57721207563</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-76725.24146045411</v>
+      </c>
+      <c r="N6" t="n">
+        <v>52031.69778725384</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28843.07745432014</v>
+      </c>
+      <c r="P6" t="n">
         <v>52031.69778725396</v>
-      </c>
-      <c r="I6" t="n">
-        <v>52031.69778725365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-36700.82823162484</v>
-      </c>
-      <c r="K6" t="n">
-        <v>42951.88041458825</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-37197.57721207572</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-76725.24146045395</v>
-      </c>
-      <c r="N6" t="n">
-        <v>52031.69778725383</v>
-      </c>
-      <c r="O6" t="n">
-        <v>28843.0774543201</v>
-      </c>
-      <c r="P6" t="n">
-        <v>52031.6977872539</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="F2" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="G2" t="n">
         <v>157.183214433998</v>
@@ -26707,10 +26707,10 @@
         <v>157.183214433998</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="K2" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="L2" t="n">
         <v>136.1509490105433</v>
@@ -26719,13 +26719,13 @@
         <v>157.183214433998</v>
       </c>
       <c r="N2" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="O2" t="n">
         <v>157.183214433998</v>
       </c>
       <c r="P2" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="3">
@@ -26799,19 +26799,19 @@
         <v>664.9596346349587</v>
       </c>
       <c r="F4" t="n">
-        <v>664.9596346349587</v>
+        <v>664.9596346349585</v>
       </c>
       <c r="G4" t="n">
         <v>664.9596346349585</v>
       </c>
       <c r="H4" t="n">
-        <v>664.9596346349587</v>
+        <v>664.9596346349585</v>
       </c>
       <c r="I4" t="n">
-        <v>664.9596346349589</v>
+        <v>664.9596346349588</v>
       </c>
       <c r="J4" t="n">
-        <v>870.7549745540788</v>
+        <v>870.7549745540786</v>
       </c>
       <c r="K4" t="n">
         <v>870.7549745540788</v>
@@ -26820,16 +26820,16 @@
         <v>745.0352540395784</v>
       </c>
       <c r="M4" t="n">
+        <v>664.9596346349588</v>
+      </c>
+      <c r="N4" t="n">
+        <v>664.9596346349588</v>
+      </c>
+      <c r="O4" t="n">
+        <v>664.9596346349588</v>
+      </c>
+      <c r="P4" t="n">
         <v>664.9596346349589</v>
-      </c>
-      <c r="N4" t="n">
-        <v>664.9596346349589</v>
-      </c>
-      <c r="O4" t="n">
-        <v>664.959634634959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>664.9596346349588</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.63896750286473</v>
+        <v>74.63896750286465</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.98577541616696</v>
+        <v>28.98577541616702</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>107.1651735943763</v>
+        <v>107.1651735943761</v>
       </c>
       <c r="M2" t="n">
-        <v>21.03226542345465</v>
+        <v>21.03226542345473</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.98577541616699</v>
+        <v>28.98577541616712</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>215.8050187020513</v>
+        <v>215.8050187020511</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>449.1546159329074</v>
+        <v>449.1546159329073</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.63896750286473</v>
+        <v>74.63896750286465</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.98577541616696</v>
+        <v>28.98577541616702</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27379,10 +27379,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>369.2978960085147</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>359.0860463421173</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27430,7 +27430,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27445,7 +27445,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.596758086989</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0769572485235</v>
       </c>
       <c r="D3" t="n">
-        <v>128.6337255676841</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>123.337181286693</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>118.6246899049423</v>
       </c>
       <c r="H3" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -27521,7 +27521,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>157.9101310600051</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27546,10 +27546,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>142.1393233524747</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>157.2208723628971</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27594,13 +27594,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>249.3114263251557</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>273.2851586848435</v>
       </c>
       <c r="X4" t="n">
-        <v>218.9302606806466</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27622,7 +27622,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>380.8281839120228</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27679,7 +27679,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>369.3933140017156</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>149.0087232814423</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0769572485235</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>135.5480510607661</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>118.6246899049423</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -27749,7 +27749,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>171.7101362146047</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27789,10 +27789,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>147.7692399855875</v>
       </c>
       <c r="I7" t="n">
-        <v>133.9444888813423</v>
+        <v>132.7513351704169</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>138.0168847888342</v>
+        <v>139.2100384997596</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>220.8374848695466</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,16 +27862,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>153.2134222215731</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,13 +27913,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>381.7405110711329</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E9" t="n">
-        <v>105.4305196484091</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>130.2320844017427</v>
       </c>
     </row>
     <row r="10">
@@ -28017,22 +28017,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>30.93846919511654</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28071,13 +28071,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y10" t="n">
-        <v>197.8729864512848</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="C11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="D11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="E11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="F11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="G11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="H11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="I11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.37296205759084</v>
+        <v>59.37296205759085</v>
       </c>
       <c r="S11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="T11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="U11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="V11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="W11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="X11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="C13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="D13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="E13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="F13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="G13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="H13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="I13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="J13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="K13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="L13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="M13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="N13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="O13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="P13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="R13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="S13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="T13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="U13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="V13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="W13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="X13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113322</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="C14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="D14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="E14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="F14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="G14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="H14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="I14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>59.37296205759084</v>
       </c>
       <c r="S14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="T14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="U14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="V14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="W14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="X14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="C16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="D16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="E16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="F16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="G16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="H16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="I16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="J16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="K16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="L16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="M16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="N16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="O16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="P16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="R16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="S16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="T16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="U16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="V16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="W16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="X16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.54424693113326</v>
+        <v>82.54424693113332</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.37296205759084</v>
+        <v>59.37296205759085</v>
       </c>
       <c r="S17" t="n">
         <v>157.183214433998</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.183214433998</v>
+        <v>109.6379256450846</v>
       </c>
       <c r="C19" t="n">
         <v>157.183214433998</v>
@@ -28743,7 +28743,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J19" t="n">
-        <v>44.12956681557274</v>
+        <v>44.12956681557276</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.99870672291165</v>
+        <v>19.99870672291166</v>
       </c>
       <c r="R19" t="n">
         <v>138.2788673450427</v>
       </c>
       <c r="S19" t="n">
-        <v>109.6379256450842</v>
+        <v>157.183214433998</v>
       </c>
       <c r="T19" t="n">
         <v>157.183214433998</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>102.9436353073805</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.99870672291165</v>
+        <v>19.99870672291164</v>
       </c>
       <c r="R22" t="n">
         <v>138.2788673450427</v>
@@ -29025,7 +29025,7 @@
         <v>157.183214433998</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.183214433998</v>
+        <v>109.6379256450845</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.37296205759077</v>
+        <v>59.37296205759078</v>
       </c>
       <c r="S23" t="n">
         <v>157.183214433998</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.6379256450833</v>
+        <v>157.183214433998</v>
       </c>
       <c r="C25" t="n">
         <v>157.183214433998</v>
@@ -29217,7 +29217,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J25" t="n">
-        <v>44.12956681557271</v>
+        <v>44.12956681557272</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.9987067229116</v>
+        <v>19.99870672291161</v>
       </c>
       <c r="R25" t="n">
         <v>138.2788673450427</v>
@@ -29250,7 +29250,7 @@
         <v>157.183214433998</v>
       </c>
       <c r="U25" t="n">
-        <v>157.183214433998</v>
+        <v>109.637925645084</v>
       </c>
       <c r="V25" t="n">
         <v>157.183214433998</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="C26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="D26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="E26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="F26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="G26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="H26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="I26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="J26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="K26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="L26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="M26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="N26" t="n">
-        <v>45.24141515276096</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="O26" t="n">
-        <v>103.6247429190317</v>
+        <v>45.2414151527604</v>
       </c>
       <c r="P26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="R26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="S26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="T26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="U26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="V26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="W26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="X26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Y26" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="C28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="D28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="E28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="F28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="G28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="H28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="I28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="J28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="K28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="L28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="M28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="N28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="O28" t="n">
-        <v>103.6247429190321</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="P28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="R28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="S28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="T28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="U28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="V28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="W28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="X28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="C29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="D29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="E29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="F29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="G29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="H29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="I29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="J29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="K29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="L29" t="n">
-        <v>45.24141515276119</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="M29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="N29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="O29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="P29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Q29" t="n">
-        <v>103.6247429190317</v>
+        <v>45.24141515276116</v>
       </c>
       <c r="R29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="S29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="T29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="U29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="V29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="W29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="X29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="C31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="D31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="E31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="F31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="G31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="I31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="J31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="K31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="L31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="M31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="N31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="O31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="P31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="S31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="T31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="U31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="V31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="W31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="X31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.6247429190317</v>
+        <v>103.6247429190318</v>
       </c>
     </row>
     <row r="32">
@@ -29770,13 +29770,13 @@
         <v>136.1509490105433</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>136.1509490105433</v>
       </c>
       <c r="K32" t="n">
-        <v>104.138163093179</v>
+        <v>44.76520103558869</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>136.1509490105433</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,13 +29788,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>136.1509490105433</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>136.1509490105433</v>
+        <v>59.37296205759078</v>
       </c>
       <c r="S32" t="n">
         <v>136.1509490105433</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.1509490105433</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>136.1509490105433</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.7315103093385</v>
+        <v>117.7315103093396</v>
       </c>
       <c r="R34" t="n">
         <v>136.1509490105433</v>
@@ -30165,7 +30165,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>44.12956681557272</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>138.2788673450427</v>
       </c>
       <c r="S37" t="n">
-        <v>153.7674924606567</v>
+        <v>157.183214433998</v>
       </c>
       <c r="T37" t="n">
         <v>157.183214433998</v>
@@ -30201,7 +30201,7 @@
         <v>157.183214433998</v>
       </c>
       <c r="V37" t="n">
-        <v>157.183214433998</v>
+        <v>109.6379256450838</v>
       </c>
       <c r="W37" t="n">
         <v>157.183214433998</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="E38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="F38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="G38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="I38" t="n">
         <v>152.4566968676251</v>
@@ -30271,25 +30271,25 @@
         <v>59.37296205759078</v>
       </c>
       <c r="S38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y38" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D40" t="n">
-        <v>148.1254522671737</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H40" t="n">
         <v>155.8514527536109</v>
@@ -30402,7 +30402,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>44.12956681557272</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.99870672291161</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>138.2788673450427</v>
       </c>
       <c r="S40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T40" t="n">
-        <v>157.183214433998</v>
+        <v>129.6366323679962</v>
       </c>
       <c r="U40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="41">
@@ -30639,7 +30639,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J43" t="n">
-        <v>44.12956681557272</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,10 +30666,10 @@
         <v>138.2788673450427</v>
       </c>
       <c r="S43" t="n">
-        <v>109.6379256450838</v>
+        <v>157.183214433998</v>
       </c>
       <c r="T43" t="n">
-        <v>157.183214433998</v>
+        <v>153.7674924606565</v>
       </c>
       <c r="U43" t="n">
         <v>157.183214433998</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="E44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="F44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="G44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="I44" t="n">
         <v>152.4566968676251</v>
@@ -30745,25 +30745,25 @@
         <v>59.37296205759078</v>
       </c>
       <c r="S44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>109.6379256450838</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H46" t="n">
         <v>155.8514527536109</v>
@@ -30876,7 +30876,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J46" t="n">
-        <v>44.12956681557272</v>
+        <v>16.58298474957094</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.99870672291161</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>138.2788673450427</v>
       </c>
       <c r="S46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4832975795516974</v>
+        <v>0.4832975795516973</v>
       </c>
       <c r="H11" t="n">
-        <v>4.949571336583823</v>
+        <v>4.949571336583822</v>
       </c>
       <c r="I11" t="n">
-        <v>18.63232993566684</v>
+        <v>18.63232993566683</v>
       </c>
       <c r="J11" t="n">
-        <v>41.01927794247592</v>
+        <v>41.01927794247591</v>
       </c>
       <c r="K11" t="n">
-        <v>61.47726448489929</v>
+        <v>61.47726448489927</v>
       </c>
       <c r="L11" t="n">
-        <v>76.26798278510456</v>
+        <v>76.26798278510455</v>
       </c>
       <c r="M11" t="n">
-        <v>84.86282611545705</v>
+        <v>84.86282611545704</v>
       </c>
       <c r="N11" t="n">
-        <v>86.23599536335833</v>
+        <v>86.2359953633583</v>
       </c>
       <c r="O11" t="n">
-        <v>81.43020505669112</v>
+        <v>81.43020505669111</v>
       </c>
       <c r="P11" t="n">
-        <v>69.49879606150859</v>
+        <v>69.49879606150857</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.19070149381341</v>
+        <v>52.19070149381339</v>
       </c>
       <c r="R11" t="n">
         <v>30.35894158151434</v>
       </c>
       <c r="S11" t="n">
-        <v>11.01314359403432</v>
+        <v>11.01314359403431</v>
       </c>
       <c r="T11" t="n">
-        <v>2.115635154487557</v>
+        <v>2.115635154487556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03866380636413579</v>
+        <v>0.03866380636413578</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2585870021157976</v>
+        <v>0.2585870021157975</v>
       </c>
       <c r="H12" t="n">
         <v>2.49740604674994</v>
       </c>
       <c r="I12" t="n">
-        <v>8.90310511670619</v>
+        <v>8.903105116706188</v>
       </c>
       <c r="J12" t="n">
         <v>24.43080093235261</v>
       </c>
       <c r="K12" t="n">
-        <v>41.75613007411105</v>
+        <v>41.75613007411104</v>
       </c>
       <c r="L12" t="n">
-        <v>56.14626991115158</v>
+        <v>56.14626991115156</v>
       </c>
       <c r="M12" t="n">
-        <v>65.52004873784922</v>
+        <v>65.52004873784921</v>
       </c>
       <c r="N12" t="n">
-        <v>67.25416946695036</v>
+        <v>67.25416946695034</v>
       </c>
       <c r="O12" t="n">
-        <v>61.52442589375294</v>
+        <v>61.52442589375293</v>
       </c>
       <c r="P12" t="n">
-        <v>49.37877586893682</v>
+        <v>49.37877586893681</v>
       </c>
       <c r="Q12" t="n">
         <v>33.00840398937795</v>
@@ -31865,7 +31865,7 @@
         <v>16.05507720154049</v>
       </c>
       <c r="S12" t="n">
-        <v>4.803140148949131</v>
+        <v>4.80314014894913</v>
       </c>
       <c r="T12" t="n">
         <v>1.042287083089552</v>
@@ -31911,22 +31911,22 @@
         <v>0.2167906560734972</v>
       </c>
       <c r="H13" t="n">
-        <v>1.927466014908004</v>
+        <v>1.927466014908003</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5194862753739</v>
+        <v>6.519486275373898</v>
       </c>
       <c r="J13" t="n">
         <v>15.32709938439625</v>
       </c>
       <c r="K13" t="n">
-        <v>25.18713258744813</v>
+        <v>25.18713258744812</v>
       </c>
       <c r="L13" t="n">
-        <v>32.23085808569068</v>
+        <v>32.23085808569066</v>
       </c>
       <c r="M13" t="n">
-        <v>33.98292075159375</v>
+        <v>33.98292075159374</v>
       </c>
       <c r="N13" t="n">
         <v>33.17488285168346</v>
@@ -31935,22 +31935,22 @@
         <v>30.64237382391578</v>
       </c>
       <c r="P13" t="n">
-        <v>26.21984444001642</v>
+        <v>26.21984444001641</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.15326120993621</v>
+        <v>18.1532612099362</v>
       </c>
       <c r="R13" t="n">
-        <v>9.747696226722882</v>
+        <v>9.74769622672288</v>
       </c>
       <c r="S13" t="n">
-        <v>3.778069888117218</v>
+        <v>3.778069888117217</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9262873486776697</v>
+        <v>0.9262873486776695</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01182494487673623</v>
+        <v>0.01182494487673622</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4832975795516974</v>
+        <v>0.4832975795516975</v>
       </c>
       <c r="H14" t="n">
-        <v>4.949571336583823</v>
+        <v>4.949571336583824</v>
       </c>
       <c r="I14" t="n">
         <v>18.63232993566684</v>
@@ -32005,22 +32005,22 @@
         <v>76.26798278510456</v>
       </c>
       <c r="M14" t="n">
-        <v>84.86282611545705</v>
+        <v>84.86282611545707</v>
       </c>
       <c r="N14" t="n">
-        <v>86.23599536335833</v>
+        <v>86.23599536335834</v>
       </c>
       <c r="O14" t="n">
-        <v>81.43020505669112</v>
+        <v>81.43020505669114</v>
       </c>
       <c r="P14" t="n">
-        <v>69.49879606150859</v>
+        <v>69.4987960615086</v>
       </c>
       <c r="Q14" t="n">
         <v>52.19070149381341</v>
       </c>
       <c r="R14" t="n">
-        <v>30.35894158151434</v>
+        <v>30.35894158151435</v>
       </c>
       <c r="S14" t="n">
         <v>11.01314359403432</v>
@@ -32069,46 +32069,46 @@
         <v>0.2585870021157976</v>
       </c>
       <c r="H15" t="n">
-        <v>2.49740604674994</v>
+        <v>2.497406046749941</v>
       </c>
       <c r="I15" t="n">
-        <v>8.90310511670619</v>
+        <v>8.903105116706191</v>
       </c>
       <c r="J15" t="n">
-        <v>24.43080093235261</v>
+        <v>24.43080093235262</v>
       </c>
       <c r="K15" t="n">
-        <v>41.75613007411105</v>
+        <v>41.75613007411106</v>
       </c>
       <c r="L15" t="n">
         <v>56.14626991115158</v>
       </c>
       <c r="M15" t="n">
-        <v>65.52004873784922</v>
+        <v>65.52004873784924</v>
       </c>
       <c r="N15" t="n">
         <v>67.25416946695036</v>
       </c>
       <c r="O15" t="n">
-        <v>61.52442589375294</v>
+        <v>61.52442589375295</v>
       </c>
       <c r="P15" t="n">
-        <v>49.37877586893682</v>
+        <v>49.37877586893683</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.00840398937795</v>
+        <v>33.00840398937796</v>
       </c>
       <c r="R15" t="n">
         <v>16.05507720154049</v>
       </c>
       <c r="S15" t="n">
-        <v>4.803140148949131</v>
+        <v>4.803140148949132</v>
       </c>
       <c r="T15" t="n">
         <v>1.042287083089552</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01701230277077616</v>
+        <v>0.01701230277077617</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>1.927466014908004</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5194862753739</v>
+        <v>6.519486275373901</v>
       </c>
       <c r="J16" t="n">
         <v>15.32709938439625</v>
@@ -32166,10 +32166,10 @@
         <v>33.98292075159375</v>
       </c>
       <c r="N16" t="n">
-        <v>33.17488285168346</v>
+        <v>33.17488285168347</v>
       </c>
       <c r="O16" t="n">
-        <v>30.64237382391578</v>
+        <v>30.64237382391579</v>
       </c>
       <c r="P16" t="n">
         <v>26.21984444001642</v>
@@ -32178,13 +32178,13 @@
         <v>18.15326120993621</v>
       </c>
       <c r="R16" t="n">
-        <v>9.747696226722882</v>
+        <v>9.747696226722883</v>
       </c>
       <c r="S16" t="n">
-        <v>3.778069888117218</v>
+        <v>3.778069888117219</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9262873486776697</v>
+        <v>0.9262873486776698</v>
       </c>
       <c r="U16" t="n">
         <v>0.01182494487673623</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4832975795516974</v>
+        <v>0.4832975795516972</v>
       </c>
       <c r="H17" t="n">
-        <v>4.949571336583823</v>
+        <v>4.94957133658382</v>
       </c>
       <c r="I17" t="n">
-        <v>18.63232993566684</v>
+        <v>18.63232993566682</v>
       </c>
       <c r="J17" t="n">
-        <v>41.01927794247592</v>
+        <v>41.0192779424759</v>
       </c>
       <c r="K17" t="n">
-        <v>61.47726448489929</v>
+        <v>61.47726448489925</v>
       </c>
       <c r="L17" t="n">
-        <v>76.26798278510456</v>
+        <v>76.26798278510452</v>
       </c>
       <c r="M17" t="n">
-        <v>84.86282611545705</v>
+        <v>84.86282611545701</v>
       </c>
       <c r="N17" t="n">
-        <v>86.23599536335833</v>
+        <v>86.23599536335827</v>
       </c>
       <c r="O17" t="n">
-        <v>81.43020505669112</v>
+        <v>81.43020505669108</v>
       </c>
       <c r="P17" t="n">
-        <v>69.49879606150859</v>
+        <v>69.49879606150854</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.19070149381341</v>
+        <v>52.19070149381337</v>
       </c>
       <c r="R17" t="n">
-        <v>30.35894158151434</v>
+        <v>30.35894158151433</v>
       </c>
       <c r="S17" t="n">
-        <v>11.01314359403432</v>
+        <v>11.01314359403431</v>
       </c>
       <c r="T17" t="n">
-        <v>2.115635154487557</v>
+        <v>2.115635154487555</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03866380636413579</v>
+        <v>0.03866380636413577</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2585870021157976</v>
+        <v>0.2585870021157974</v>
       </c>
       <c r="H18" t="n">
-        <v>2.49740604674994</v>
+        <v>2.497406046749939</v>
       </c>
       <c r="I18" t="n">
-        <v>8.90310511670619</v>
+        <v>8.903105116706184</v>
       </c>
       <c r="J18" t="n">
-        <v>24.43080093235261</v>
+        <v>24.4308009323526</v>
       </c>
       <c r="K18" t="n">
-        <v>41.75613007411105</v>
+        <v>41.75613007411103</v>
       </c>
       <c r="L18" t="n">
-        <v>56.14626991115158</v>
+        <v>56.14626991115155</v>
       </c>
       <c r="M18" t="n">
-        <v>65.52004873784922</v>
+        <v>65.52004873784919</v>
       </c>
       <c r="N18" t="n">
-        <v>67.25416946695036</v>
+        <v>67.25416946695032</v>
       </c>
       <c r="O18" t="n">
-        <v>61.52442589375294</v>
+        <v>61.52442589375291</v>
       </c>
       <c r="P18" t="n">
-        <v>49.37877586893682</v>
+        <v>49.37877586893679</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.00840398937795</v>
+        <v>33.00840398937793</v>
       </c>
       <c r="R18" t="n">
-        <v>16.05507720154049</v>
+        <v>16.05507720154048</v>
       </c>
       <c r="S18" t="n">
-        <v>4.803140148949131</v>
+        <v>4.803140148949129</v>
       </c>
       <c r="T18" t="n">
-        <v>1.042287083089552</v>
+        <v>1.042287083089551</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01701230277077616</v>
+        <v>0.01701230277077615</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2167906560734972</v>
+        <v>0.2167906560734971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.927466014908004</v>
+        <v>1.927466014908003</v>
       </c>
       <c r="I19" t="n">
-        <v>6.5194862753739</v>
+        <v>6.519486275373897</v>
       </c>
       <c r="J19" t="n">
-        <v>15.32709938439625</v>
+        <v>15.32709938439624</v>
       </c>
       <c r="K19" t="n">
-        <v>25.18713258744813</v>
+        <v>25.18713258744811</v>
       </c>
       <c r="L19" t="n">
-        <v>32.23085808569068</v>
+        <v>32.23085808569066</v>
       </c>
       <c r="M19" t="n">
-        <v>33.98292075159375</v>
+        <v>33.98292075159372</v>
       </c>
       <c r="N19" t="n">
-        <v>33.17488285168346</v>
+        <v>33.17488285168345</v>
       </c>
       <c r="O19" t="n">
-        <v>30.64237382391578</v>
+        <v>30.64237382391577</v>
       </c>
       <c r="P19" t="n">
-        <v>26.21984444001642</v>
+        <v>26.2198444400164</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.15326120993621</v>
+        <v>18.1532612099362</v>
       </c>
       <c r="R19" t="n">
-        <v>9.747696226722882</v>
+        <v>9.747696226722876</v>
       </c>
       <c r="S19" t="n">
-        <v>3.778069888117218</v>
+        <v>3.778069888117216</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9262873486776697</v>
+        <v>0.9262873486776692</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01182494487673623</v>
+        <v>0.01182494487673622</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4832975795516974</v>
+        <v>0.4832975795516975</v>
       </c>
       <c r="H20" t="n">
-        <v>4.949571336583823</v>
+        <v>4.949571336583824</v>
       </c>
       <c r="I20" t="n">
         <v>18.63232993566684</v>
@@ -32479,22 +32479,22 @@
         <v>76.26798278510456</v>
       </c>
       <c r="M20" t="n">
-        <v>84.86282611545705</v>
+        <v>84.86282611545707</v>
       </c>
       <c r="N20" t="n">
-        <v>86.23599536335833</v>
+        <v>86.23599536335834</v>
       </c>
       <c r="O20" t="n">
-        <v>81.43020505669112</v>
+        <v>81.43020505669114</v>
       </c>
       <c r="P20" t="n">
-        <v>69.49879606150859</v>
+        <v>69.4987960615086</v>
       </c>
       <c r="Q20" t="n">
         <v>52.19070149381341</v>
       </c>
       <c r="R20" t="n">
-        <v>30.35894158151434</v>
+        <v>30.35894158151435</v>
       </c>
       <c r="S20" t="n">
         <v>11.01314359403432</v>
@@ -32543,46 +32543,46 @@
         <v>0.2585870021157976</v>
       </c>
       <c r="H21" t="n">
-        <v>2.49740604674994</v>
+        <v>2.497406046749941</v>
       </c>
       <c r="I21" t="n">
-        <v>8.90310511670619</v>
+        <v>8.903105116706191</v>
       </c>
       <c r="J21" t="n">
-        <v>24.43080093235261</v>
+        <v>24.43080093235262</v>
       </c>
       <c r="K21" t="n">
-        <v>41.75613007411105</v>
+        <v>41.75613007411106</v>
       </c>
       <c r="L21" t="n">
         <v>56.14626991115158</v>
       </c>
       <c r="M21" t="n">
-        <v>65.52004873784922</v>
+        <v>65.52004873784924</v>
       </c>
       <c r="N21" t="n">
         <v>67.25416946695036</v>
       </c>
       <c r="O21" t="n">
-        <v>61.52442589375294</v>
+        <v>61.52442589375295</v>
       </c>
       <c r="P21" t="n">
-        <v>49.37877586893682</v>
+        <v>49.37877586893683</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.00840398937795</v>
+        <v>33.00840398937796</v>
       </c>
       <c r="R21" t="n">
         <v>16.05507720154049</v>
       </c>
       <c r="S21" t="n">
-        <v>4.803140148949131</v>
+        <v>4.803140148949132</v>
       </c>
       <c r="T21" t="n">
         <v>1.042287083089552</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01701230277077616</v>
+        <v>0.01701230277077617</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>1.927466014908004</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5194862753739</v>
+        <v>6.519486275373901</v>
       </c>
       <c r="J22" t="n">
         <v>15.32709938439625</v>
@@ -32640,10 +32640,10 @@
         <v>33.98292075159375</v>
       </c>
       <c r="N22" t="n">
-        <v>33.17488285168346</v>
+        <v>33.17488285168347</v>
       </c>
       <c r="O22" t="n">
-        <v>30.64237382391578</v>
+        <v>30.64237382391579</v>
       </c>
       <c r="P22" t="n">
         <v>26.21984444001642</v>
@@ -32652,13 +32652,13 @@
         <v>18.15326120993621</v>
       </c>
       <c r="R22" t="n">
-        <v>9.747696226722882</v>
+        <v>9.747696226722883</v>
       </c>
       <c r="S22" t="n">
-        <v>3.778069888117218</v>
+        <v>3.778069888117219</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9262873486776697</v>
+        <v>0.9262873486776698</v>
       </c>
       <c r="U22" t="n">
         <v>0.01182494487673623</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4832975795516987</v>
+        <v>0.4832975795516984</v>
       </c>
       <c r="H23" t="n">
-        <v>4.949571336583835</v>
+        <v>4.949571336583833</v>
       </c>
       <c r="I23" t="n">
-        <v>18.63232993566688</v>
+        <v>18.63232993566687</v>
       </c>
       <c r="J23" t="n">
-        <v>41.01927794247602</v>
+        <v>41.01927794247599</v>
       </c>
       <c r="K23" t="n">
-        <v>61.47726448489944</v>
+        <v>61.4772644848994</v>
       </c>
       <c r="L23" t="n">
-        <v>76.26798278510475</v>
+        <v>76.26798278510471</v>
       </c>
       <c r="M23" t="n">
-        <v>84.86282611545727</v>
+        <v>84.86282611545722</v>
       </c>
       <c r="N23" t="n">
-        <v>86.23599536335854</v>
+        <v>86.23599536335848</v>
       </c>
       <c r="O23" t="n">
-        <v>81.43020505669134</v>
+        <v>81.43020505669128</v>
       </c>
       <c r="P23" t="n">
-        <v>69.49879606150876</v>
+        <v>69.49879606150871</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.19070149381353</v>
+        <v>52.19070149381351</v>
       </c>
       <c r="R23" t="n">
-        <v>30.35894158151442</v>
+        <v>30.3589415815144</v>
       </c>
       <c r="S23" t="n">
         <v>11.01314359403434</v>
       </c>
       <c r="T23" t="n">
-        <v>2.115635154487562</v>
+        <v>2.115635154487561</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03866380636413588</v>
+        <v>0.03866380636413586</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2585870021157982</v>
+        <v>0.258587002115798</v>
       </c>
       <c r="H24" t="n">
-        <v>2.497406046749946</v>
+        <v>2.497406046749945</v>
       </c>
       <c r="I24" t="n">
-        <v>8.903105116706211</v>
+        <v>8.903105116706206</v>
       </c>
       <c r="J24" t="n">
-        <v>24.43080093235267</v>
+        <v>24.43080093235266</v>
       </c>
       <c r="K24" t="n">
-        <v>41.75613007411116</v>
+        <v>41.75613007411113</v>
       </c>
       <c r="L24" t="n">
-        <v>56.14626991115172</v>
+        <v>56.14626991115168</v>
       </c>
       <c r="M24" t="n">
-        <v>65.52004873784939</v>
+        <v>65.52004873784935</v>
       </c>
       <c r="N24" t="n">
-        <v>67.25416946695051</v>
+        <v>67.25416946695049</v>
       </c>
       <c r="O24" t="n">
-        <v>61.5244258937531</v>
+        <v>61.52442589375305</v>
       </c>
       <c r="P24" t="n">
-        <v>49.37877586893695</v>
+        <v>49.37877586893692</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.00840398937803</v>
+        <v>33.00840398937802</v>
       </c>
       <c r="R24" t="n">
-        <v>16.05507720154053</v>
+        <v>16.05507720154052</v>
       </c>
       <c r="S24" t="n">
-        <v>4.803140148949144</v>
+        <v>4.803140148949141</v>
       </c>
       <c r="T24" t="n">
-        <v>1.042287083089555</v>
+        <v>1.042287083089554</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01701230277077621</v>
+        <v>0.0170123027707762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2167906560734978</v>
+        <v>0.2167906560734976</v>
       </c>
       <c r="H25" t="n">
-        <v>1.927466014908009</v>
+        <v>1.927466014908008</v>
       </c>
       <c r="I25" t="n">
-        <v>6.519486275373916</v>
+        <v>6.519486275373913</v>
       </c>
       <c r="J25" t="n">
-        <v>15.32709938439629</v>
+        <v>15.32709938439628</v>
       </c>
       <c r="K25" t="n">
-        <v>25.18713258744819</v>
+        <v>25.18713258744817</v>
       </c>
       <c r="L25" t="n">
-        <v>32.23085808569076</v>
+        <v>32.23085808569073</v>
       </c>
       <c r="M25" t="n">
-        <v>33.98292075159383</v>
+        <v>33.98292075159381</v>
       </c>
       <c r="N25" t="n">
-        <v>33.17488285168355</v>
+        <v>33.17488285168353</v>
       </c>
       <c r="O25" t="n">
-        <v>30.64237382391586</v>
+        <v>30.64237382391584</v>
       </c>
       <c r="P25" t="n">
-        <v>26.21984444001648</v>
+        <v>26.21984444001647</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.15326120993625</v>
+        <v>18.15326120993624</v>
       </c>
       <c r="R25" t="n">
-        <v>9.747696226722907</v>
+        <v>9.747696226722899</v>
       </c>
       <c r="S25" t="n">
-        <v>3.778069888117228</v>
+        <v>3.778069888117225</v>
       </c>
       <c r="T25" t="n">
-        <v>0.926287348677672</v>
+        <v>0.9262873486776715</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01182494487673626</v>
+        <v>0.01182494487673625</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4832975795516987</v>
+        <v>0.4832975795516984</v>
       </c>
       <c r="H26" t="n">
-        <v>4.949571336583835</v>
+        <v>4.949571336583833</v>
       </c>
       <c r="I26" t="n">
-        <v>18.63232993566688</v>
+        <v>18.63232993566687</v>
       </c>
       <c r="J26" t="n">
-        <v>41.01927794247602</v>
+        <v>41.01927794247599</v>
       </c>
       <c r="K26" t="n">
-        <v>61.47726448489944</v>
+        <v>61.4772644848994</v>
       </c>
       <c r="L26" t="n">
-        <v>76.26798278510475</v>
+        <v>76.26798278510471</v>
       </c>
       <c r="M26" t="n">
-        <v>84.86282611545727</v>
+        <v>84.86282611545722</v>
       </c>
       <c r="N26" t="n">
-        <v>86.23599536335854</v>
+        <v>86.23599536335848</v>
       </c>
       <c r="O26" t="n">
-        <v>81.43020505669134</v>
+        <v>81.43020505669128</v>
       </c>
       <c r="P26" t="n">
-        <v>69.49879606150876</v>
+        <v>69.49879606150871</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.19070149381353</v>
+        <v>52.19070149381351</v>
       </c>
       <c r="R26" t="n">
-        <v>30.35894158151442</v>
+        <v>30.3589415815144</v>
       </c>
       <c r="S26" t="n">
         <v>11.01314359403434</v>
       </c>
       <c r="T26" t="n">
-        <v>2.115635154487562</v>
+        <v>2.115635154487561</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03866380636413588</v>
+        <v>0.03866380636413586</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2585870021157982</v>
+        <v>0.258587002115798</v>
       </c>
       <c r="H27" t="n">
-        <v>2.497406046749946</v>
+        <v>2.497406046749945</v>
       </c>
       <c r="I27" t="n">
-        <v>8.903105116706211</v>
+        <v>8.903105116706206</v>
       </c>
       <c r="J27" t="n">
-        <v>24.43080093235267</v>
+        <v>24.43080093235266</v>
       </c>
       <c r="K27" t="n">
-        <v>41.75613007411116</v>
+        <v>41.75613007411113</v>
       </c>
       <c r="L27" t="n">
-        <v>56.14626991115172</v>
+        <v>56.14626991115168</v>
       </c>
       <c r="M27" t="n">
-        <v>65.52004873784939</v>
+        <v>65.52004873784935</v>
       </c>
       <c r="N27" t="n">
-        <v>67.25416946695051</v>
+        <v>67.25416946695049</v>
       </c>
       <c r="O27" t="n">
-        <v>61.5244258937531</v>
+        <v>61.52442589375305</v>
       </c>
       <c r="P27" t="n">
-        <v>49.37877586893695</v>
+        <v>49.37877586893692</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.00840398937803</v>
+        <v>33.00840398937802</v>
       </c>
       <c r="R27" t="n">
-        <v>16.05507720154053</v>
+        <v>16.05507720154052</v>
       </c>
       <c r="S27" t="n">
-        <v>4.803140148949144</v>
+        <v>4.803140148949141</v>
       </c>
       <c r="T27" t="n">
-        <v>1.042287083089555</v>
+        <v>1.042287083089554</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01701230277077621</v>
+        <v>0.0170123027707762</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2167906560734978</v>
+        <v>0.2167906560734976</v>
       </c>
       <c r="H28" t="n">
-        <v>1.927466014908009</v>
+        <v>1.927466014908008</v>
       </c>
       <c r="I28" t="n">
-        <v>6.519486275373916</v>
+        <v>6.519486275373913</v>
       </c>
       <c r="J28" t="n">
-        <v>15.32709938439629</v>
+        <v>15.32709938439628</v>
       </c>
       <c r="K28" t="n">
-        <v>25.18713258744819</v>
+        <v>25.18713258744817</v>
       </c>
       <c r="L28" t="n">
-        <v>32.23085808569076</v>
+        <v>32.23085808569073</v>
       </c>
       <c r="M28" t="n">
-        <v>33.98292075159383</v>
+        <v>33.98292075159381</v>
       </c>
       <c r="N28" t="n">
-        <v>33.17488285168355</v>
+        <v>33.17488285168353</v>
       </c>
       <c r="O28" t="n">
-        <v>30.64237382391586</v>
+        <v>30.64237382391584</v>
       </c>
       <c r="P28" t="n">
-        <v>26.21984444001648</v>
+        <v>26.21984444001647</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.15326120993625</v>
+        <v>18.15326120993624</v>
       </c>
       <c r="R28" t="n">
-        <v>9.747696226722907</v>
+        <v>9.747696226722899</v>
       </c>
       <c r="S28" t="n">
-        <v>3.778069888117228</v>
+        <v>3.778069888117225</v>
       </c>
       <c r="T28" t="n">
-        <v>0.926287348677672</v>
+        <v>0.9262873486776715</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01182494487673626</v>
+        <v>0.01182494487673625</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>9.605247316954339</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>9.605247316954339</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10.00967878293136</v>
       </c>
       <c r="P3" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>9.605247316954337</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>10.00967878293136</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="O5" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O5" t="n">
-        <v>9.605247316954339</v>
-      </c>
       <c r="P5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="Q6" t="n">
         <v>10.00967878293136</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="M7" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="O7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>10.00967878293136</v>
@@ -35179,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931629</v>
       </c>
       <c r="N8" t="n">
         <v>135.7293992974318</v>
@@ -35188,7 +35188,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="P8" t="n">
-        <v>34.85926832931634</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>69.38260888833734</v>
+        <v>69.38260888833736</v>
       </c>
       <c r="O9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q9" t="n">
         <v>135.7293992974318</v>
@@ -35422,13 +35422,13 @@
         <v>468.3888829267075</v>
       </c>
       <c r="O11" t="n">
-        <v>389.5156439181396</v>
+        <v>389.5156439181395</v>
       </c>
       <c r="P11" t="n">
         <v>299.9603076332795</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.5768163286993</v>
+        <v>147.5768163286992</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>273.5647690237966</v>
+        <v>273.5647690237965</v>
       </c>
       <c r="L12" t="n">
         <v>425.6632852345007</v>
       </c>
       <c r="M12" t="n">
-        <v>414.7038395536106</v>
+        <v>555.4527290512092</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6841150458615</v>
+        <v>250.5615389471735</v>
       </c>
       <c r="O12" t="n">
         <v>457.6859923423902</v>
@@ -35507,7 +35507,7 @@
         <v>354.5261690767118</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.3736866010893</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.41468011556051</v>
+        <v>38.41468011556046</v>
       </c>
       <c r="K13" t="n">
-        <v>141.6750035030697</v>
+        <v>141.6750035030696</v>
       </c>
       <c r="L13" t="n">
-        <v>216.3984175423386</v>
+        <v>216.3984175423385</v>
       </c>
       <c r="M13" t="n">
         <v>235.7125274075772</v>
       </c>
       <c r="N13" t="n">
-        <v>235.3376568026151</v>
+        <v>235.337656802615</v>
       </c>
       <c r="O13" t="n">
-        <v>212.644849538574</v>
+        <v>212.6448495385739</v>
       </c>
       <c r="P13" t="n">
-        <v>172.3686203894707</v>
+        <v>172.3686203894706</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.54554020822161</v>
+        <v>62.54554020822157</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>427.6673495375755</v>
       </c>
       <c r="M14" t="n">
-        <v>482.0741051589802</v>
+        <v>482.0741051589803</v>
       </c>
       <c r="N14" t="n">
         <v>468.3888829267075</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>85.29357520821742</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8158795261978</v>
+        <v>273.5647690237966</v>
       </c>
       <c r="L15" t="n">
         <v>425.6632852345007</v>
@@ -35738,7 +35738,7 @@
         <v>583.6841150458615</v>
       </c>
       <c r="O15" t="n">
-        <v>457.6859923423902</v>
+        <v>231.6435276365734</v>
       </c>
       <c r="P15" t="n">
         <v>354.5261690767118</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.41468011556051</v>
+        <v>38.41468011556057</v>
       </c>
       <c r="K16" t="n">
         <v>141.6750035030697</v>
@@ -35811,7 +35811,7 @@
         <v>216.3984175423386</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7125274075772</v>
+        <v>235.7125274075773</v>
       </c>
       <c r="N16" t="n">
         <v>235.3376568026151</v>
@@ -35823,7 +35823,7 @@
         <v>172.3686203894707</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.54554020822161</v>
+        <v>62.54554020822167</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>304.0432968533667</v>
       </c>
       <c r="L17" t="n">
-        <v>427.6673495375755</v>
+        <v>427.6673495375754</v>
       </c>
       <c r="M17" t="n">
         <v>482.0741051589802</v>
       </c>
       <c r="N17" t="n">
-        <v>468.3888829267073</v>
+        <v>468.3888829267075</v>
       </c>
       <c r="O17" t="n">
-        <v>389.5156439181396</v>
+        <v>389.5156439181395</v>
       </c>
       <c r="P17" t="n">
         <v>299.9603076332795</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.5768163286993</v>
+        <v>147.5768163286992</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>425.6632852345007</v>
+        <v>366.1054781596093</v>
       </c>
       <c r="M18" t="n">
-        <v>555.4527290512093</v>
+        <v>555.4527290512092</v>
       </c>
       <c r="N18" t="n">
         <v>583.6841150458615</v>
       </c>
       <c r="O18" t="n">
-        <v>457.6859923423902</v>
+        <v>457.6859923423901</v>
       </c>
       <c r="P18" t="n">
         <v>354.5261690767118</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.8158795261979</v>
+        <v>192.3736866010893</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.13075657193642</v>
+        <v>59.13075657193641</v>
       </c>
       <c r="L19" t="n">
         <v>133.8541706112053</v>
@@ -36057,7 +36057,7 @@
         <v>130.1006026074407</v>
       </c>
       <c r="P19" t="n">
-        <v>89.82437345833742</v>
+        <v>89.8243734583374</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>427.6673495375755</v>
       </c>
       <c r="M20" t="n">
-        <v>482.0741051589802</v>
+        <v>482.0741051589803</v>
       </c>
       <c r="N20" t="n">
         <v>468.3888829267075</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>85.2935752082174</v>
+        <v>85.29357520821742</v>
       </c>
       <c r="K21" t="n">
-        <v>209.6747867936028</v>
+        <v>273.5647690237966</v>
       </c>
       <c r="L21" t="n">
         <v>425.6632852345007</v>
       </c>
       <c r="M21" t="n">
-        <v>555.4527290512093</v>
+        <v>137.0365777443037</v>
       </c>
       <c r="N21" t="n">
         <v>583.6841150458615</v>
@@ -36215,7 +36215,7 @@
         <v>457.6859923423902</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>354.5261690767118</v>
       </c>
       <c r="Q21" t="n">
         <v>192.3736866010893</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.13075657193642</v>
+        <v>59.13075657193643</v>
       </c>
       <c r="L22" t="n">
         <v>133.8541706112053</v>
@@ -36358,7 +36358,7 @@
         <v>113.7450802382393</v>
       </c>
       <c r="K23" t="n">
-        <v>304.0432968533669</v>
+        <v>304.0432968533668</v>
       </c>
       <c r="L23" t="n">
         <v>427.6673495375757</v>
@@ -36367,13 +36367,13 @@
         <v>482.0741051589804</v>
       </c>
       <c r="N23" t="n">
-        <v>468.3888829267078</v>
+        <v>468.3888829267077</v>
       </c>
       <c r="O23" t="n">
         <v>389.5156439181397</v>
       </c>
       <c r="P23" t="n">
-        <v>299.9603076332797</v>
+        <v>299.9603076332796</v>
       </c>
       <c r="Q23" t="n">
         <v>147.5768163286994</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>85.29357520821748</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>273.5647690237967</v>
       </c>
       <c r="L24" t="n">
-        <v>7.247133927594198</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M24" t="n">
         <v>555.4527290512094</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6841150458617</v>
+        <v>250.5615389471729</v>
       </c>
       <c r="O24" t="n">
-        <v>457.6859923423904</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P24" t="n">
         <v>354.5261690767119</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.13075657193649</v>
+        <v>59.13075657193647</v>
       </c>
       <c r="L25" t="n">
         <v>133.8541706112054</v>
       </c>
       <c r="M25" t="n">
-        <v>153.1682804764441</v>
+        <v>153.168280476444</v>
       </c>
       <c r="N25" t="n">
         <v>152.7934098714819</v>
@@ -36604,10 +36604,10 @@
         <v>585.6988480780121</v>
       </c>
       <c r="N26" t="n">
-        <v>513.6302980794687</v>
+        <v>572.0136258457394</v>
       </c>
       <c r="O26" t="n">
-        <v>493.1403868371715</v>
+        <v>434.7570590709001</v>
       </c>
       <c r="P26" t="n">
         <v>403.5850505523114</v>
@@ -36616,7 +36616,7 @@
         <v>251.2015592477311</v>
       </c>
       <c r="R26" t="n">
-        <v>44.25178086144095</v>
+        <v>44.25178086144098</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>85.29357520821745</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L27" t="n">
-        <v>425.6632852345008</v>
+        <v>7.247133927594485</v>
       </c>
       <c r="M27" t="n">
         <v>555.4527290512094</v>
@@ -36686,13 +36686,13 @@
         <v>583.6841150458617</v>
       </c>
       <c r="O27" t="n">
-        <v>457.6859923423904</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P27" t="n">
         <v>354.5261690767119</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.8158795261975</v>
+        <v>192.3736866010894</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.49517610345901</v>
+        <v>59.49517610345904</v>
       </c>
       <c r="K28" t="n">
         <v>162.7554994909682</v>
       </c>
       <c r="L28" t="n">
-        <v>237.4789135302371</v>
+        <v>237.4789135302372</v>
       </c>
       <c r="M28" t="n">
         <v>256.7930233954758</v>
       </c>
       <c r="N28" t="n">
-        <v>256.4181527905136</v>
+        <v>256.4181527905137</v>
       </c>
       <c r="O28" t="n">
-        <v>233.7253455264729</v>
+        <v>233.7253455264726</v>
       </c>
       <c r="P28" t="n">
-        <v>193.4491163773692</v>
+        <v>193.4491163773693</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.62603619612011</v>
+        <v>83.62603619612015</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>407.6680397723986</v>
       </c>
       <c r="L29" t="n">
-        <v>472.9087646903369</v>
+        <v>531.2920924566074</v>
       </c>
       <c r="M29" t="n">
         <v>585.6988480780121</v>
@@ -36850,10 +36850,10 @@
         <v>403.5850505523114</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.2015592477311</v>
+        <v>192.8182314814605</v>
       </c>
       <c r="R29" t="n">
-        <v>44.25178086144095</v>
+        <v>44.25178086144098</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.29357520821745</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L30" t="n">
         <v>425.6632852345008</v>
@@ -36923,13 +36923,13 @@
         <v>583.6841150458617</v>
       </c>
       <c r="O30" t="n">
-        <v>457.6859923423903</v>
+        <v>39.26984103548402</v>
       </c>
       <c r="P30" t="n">
         <v>354.5261690767119</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.8158795261975</v>
+        <v>192.3736866010894</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.49517610345902</v>
+        <v>59.49517610345904</v>
       </c>
       <c r="K31" t="n">
         <v>162.7554994909682</v>
       </c>
       <c r="L31" t="n">
-        <v>237.4789135302371</v>
+        <v>237.4789135302372</v>
       </c>
       <c r="M31" t="n">
         <v>256.7930233954758</v>
       </c>
       <c r="N31" t="n">
-        <v>256.4181527905136</v>
+        <v>256.4181527905137</v>
       </c>
       <c r="O31" t="n">
-        <v>233.7253455264725</v>
+        <v>233.7253455264726</v>
       </c>
       <c r="P31" t="n">
-        <v>193.4491163773692</v>
+        <v>193.4491163773693</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.62603619612013</v>
+        <v>83.62603619612015</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>113.7450802382393</v>
+        <v>249.8960292487826</v>
       </c>
       <c r="K32" t="n">
-        <v>408.1814599465458</v>
+        <v>348.8084978889555</v>
       </c>
       <c r="L32" t="n">
-        <v>427.6673495375757</v>
+        <v>563.8182985481188</v>
       </c>
       <c r="M32" t="n">
         <v>482.0741051589804</v>
@@ -37084,13 +37084,13 @@
         <v>389.5156439181397</v>
       </c>
       <c r="P32" t="n">
-        <v>436.111256643823</v>
+        <v>299.9603076332796</v>
       </c>
       <c r="Q32" t="n">
         <v>147.5768163286994</v>
       </c>
       <c r="R32" t="n">
-        <v>76.77798695295253</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>133.8541706112054</v>
       </c>
       <c r="M34" t="n">
-        <v>153.168280476444</v>
+        <v>289.3192294869873</v>
       </c>
       <c r="N34" t="n">
         <v>152.7934098714819</v>
@@ -37242,10 +37242,10 @@
         <v>130.1006026074408</v>
       </c>
       <c r="P34" t="n">
-        <v>225.9753224688808</v>
+        <v>89.82437345833748</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73280358642694</v>
+        <v>97.73280358642796</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>85.29357520821745</v>
       </c>
       <c r="K36" t="n">
-        <v>132.8158795261971</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L36" t="n">
         <v>425.6632852345008</v>
@@ -37394,7 +37394,7 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6841150458617</v>
+        <v>357.6416503400446</v>
       </c>
       <c r="O36" t="n">
         <v>457.6859923423903</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.7450802382393</v>
+        <v>113.7450802382388</v>
       </c>
       <c r="K38" t="n">
         <v>304.0432968533668</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>85.29357520821745</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L39" t="n">
         <v>425.6632852345008</v>
@@ -37631,7 +37631,7 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6841150458617</v>
+        <v>165.2679637389553</v>
       </c>
       <c r="O39" t="n">
         <v>457.6859923423903</v>
@@ -37640,7 +37640,7 @@
         <v>354.5261690767119</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.815879526197</v>
+        <v>192.3736866010894</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.29357520821745</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>273.5647690237967</v>
@@ -37868,16 +37868,16 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6841150458617</v>
+        <v>250.5615389471722</v>
       </c>
       <c r="O42" t="n">
-        <v>231.6435276365734</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P42" t="n">
         <v>354.5261690767119</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>192.3736866010894</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>85.29357520821745</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L45" t="n">
         <v>425.6632852345008</v>
@@ -38105,7 +38105,7 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6841150458617</v>
+        <v>357.6416503400446</v>
       </c>
       <c r="O45" t="n">
         <v>457.6859923423903</v>
@@ -38114,7 +38114,7 @@
         <v>354.5261690767119</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.815879526197</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
